--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -1109,7 +1109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,13 +1315,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -1341,7 +1334,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1353,7 +1346,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1362,7 +1355,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,12 +1472,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1558,12 +1545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,48 +1665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,4293 +1911,4293 @@
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7860,7 +7799,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{2011A27C-EF0A-4827-8D41-175FB4848299}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{A0E1895D-39CB-440C-AF92-1A54E3E27954}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -8163,11 +8102,11 @@
   <dimension ref="C1:M441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E424" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G445" sqref="G445"/>
+      <selection pane="bottomRight" activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -1332,13 +1332,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1349,13 +1354,8 @@
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="53">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +1383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1863,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1881,16 +1887,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1899,3145 +1905,3145 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5900,308 +5906,308 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6230,25 +6236,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6260,13 +6269,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6287,13 +6296,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7799,7 +7811,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{A0E1895D-39CB-440C-AF92-1A54E3E27954}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{D04B22D8-579D-40DD-B411-313FCED06EB8}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -8102,135 +8114,135 @@
   <dimension ref="C1:M441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E284" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G419" sqref="G419"/>
+      <selection pane="bottomRight" activeCell="G296" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="11.5" style="14" customWidth="1"/>
-    <col min="4" max="5" width="15.5" style="14" customWidth="1"/>
+    <col min="1" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="11.5" style="15" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="14" customWidth="1"/>
-    <col min="10" max="11" width="19" style="14" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="14"/>
+    <col min="8" max="8" width="23.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="15" customWidth="1"/>
+    <col min="10" max="11" width="19" style="15" customWidth="1"/>
+    <col min="12" max="13" width="20.5" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25"/>
     <row r="2" spans="4:4">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11636,7 +11648,7 @@
       <c r="C107" s="6">
         <v>20001020</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="6">
@@ -11671,7 +11683,7 @@
       <c r="C108" s="6">
         <v>20001030</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="6">
@@ -12651,7 +12663,7 @@
       <c r="C136" s="6">
         <v>21020101</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E136" s="6">
@@ -13001,7 +13013,7 @@
       <c r="C146" s="6">
         <v>21100060</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E146" s="6">
@@ -13106,7 +13118,7 @@
       <c r="C149" s="6">
         <v>21101020</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E149" s="6">
@@ -13141,7 +13153,7 @@
       <c r="C150" s="6">
         <v>21101021</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E150" s="6">
@@ -13176,7 +13188,7 @@
       <c r="C151" s="6">
         <v>21101022</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E151" s="6">
@@ -13211,7 +13223,7 @@
       <c r="C152" s="6">
         <v>21101030</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E152" s="6">
@@ -13246,7 +13258,7 @@
       <c r="C153" s="6">
         <v>21101040</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E153" s="6">
@@ -13281,7 +13293,7 @@
       <c r="C154" s="6">
         <v>21101050</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E154" s="6">
@@ -13316,7 +13328,7 @@
       <c r="C155" s="6">
         <v>21101051</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E155" s="6">
@@ -13351,7 +13363,7 @@
       <c r="C156" s="6">
         <v>21102010</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E156" s="6">
@@ -13386,7 +13398,7 @@
       <c r="C157" s="6">
         <v>21102020</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E157" s="6">
@@ -13421,7 +13433,7 @@
       <c r="C158" s="6">
         <v>21102030</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E158" s="6">
@@ -13456,7 +13468,7 @@
       <c r="C159" s="6">
         <v>21102031</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E159" s="6">
@@ -13491,7 +13503,7 @@
       <c r="C160" s="6">
         <v>21102040</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E160" s="6">
@@ -13526,7 +13538,7 @@
       <c r="C161" s="6">
         <v>21103010</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="19" t="s">
         <v>84</v>
       </c>
       <c r="E161" s="6">
@@ -13561,7 +13573,7 @@
       <c r="C162" s="6">
         <v>21103020</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E162" s="6">
@@ -13596,7 +13608,7 @@
       <c r="C163" s="6">
         <v>21103030</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="19" t="s">
         <v>86</v>
       </c>
       <c r="E163" s="6">
@@ -13631,7 +13643,7 @@
       <c r="C164" s="6">
         <v>21103040</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E164" s="6">
@@ -13666,7 +13678,7 @@
       <c r="C165" s="6">
         <v>21200010</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E165" s="6">
@@ -13771,7 +13783,7 @@
       <c r="C168" s="6">
         <v>21200110</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D168" s="21" t="s">
         <v>91</v>
       </c>
       <c r="E168" s="6">
@@ -13806,7 +13818,7 @@
       <c r="C169" s="6">
         <v>21200120</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E169" s="6">
@@ -13841,7 +13853,7 @@
       <c r="C170" s="6">
         <v>21200130</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E170" s="6">
@@ -13981,7 +13993,7 @@
       <c r="C174" s="6">
         <v>21201040</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="21" t="s">
         <v>97</v>
       </c>
       <c r="E174" s="6">
@@ -14051,7 +14063,7 @@
       <c r="C176" s="6">
         <v>21201090</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E176" s="6">
@@ -14086,7 +14098,7 @@
       <c r="C177" s="6">
         <v>21202010</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E177" s="6">
@@ -14121,7 +14133,7 @@
       <c r="C178" s="6">
         <v>21202020</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E178" s="6">
@@ -14156,7 +14168,7 @@
       <c r="C179" s="6">
         <v>21202030</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="19" t="s">
         <v>102</v>
       </c>
       <c r="E179" s="6">
@@ -14191,7 +14203,7 @@
       <c r="C180" s="6">
         <v>21202031</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E180" s="6">
@@ -14226,7 +14238,7 @@
       <c r="C181" s="6">
         <v>21202040</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E181" s="6">
@@ -14261,7 +14273,7 @@
       <c r="C182" s="6">
         <v>21202090</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E182" s="6">
@@ -14296,7 +14308,7 @@
       <c r="C183" s="6">
         <v>21203010</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="19" t="s">
         <v>105</v>
       </c>
       <c r="E183" s="6">
@@ -14331,7 +14343,7 @@
       <c r="C184" s="6">
         <v>21203020</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="19" t="s">
         <v>106</v>
       </c>
       <c r="E184" s="6">
@@ -14366,7 +14378,7 @@
       <c r="C185" s="6">
         <v>21203021</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="19" t="s">
         <v>107</v>
       </c>
       <c r="E185" s="6">
@@ -14401,7 +14413,7 @@
       <c r="C186" s="6">
         <v>21203030</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E186" s="6">
@@ -14436,7 +14448,7 @@
       <c r="C187" s="6">
         <v>21203090</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E187" s="6">
@@ -14681,7 +14693,7 @@
       <c r="C194" s="6">
         <v>22000040</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="19" t="s">
         <v>111</v>
       </c>
       <c r="E194" s="6">
@@ -15160,10 +15172,10 @@
       <c r="K207" s="8">
         <v>0</v>
       </c>
-      <c r="L207" s="29">
+      <c r="L207" s="30">
         <v>6000</v>
       </c>
-      <c r="M207" s="29">
+      <c r="M207" s="30">
         <v>0</v>
       </c>
     </row>
@@ -15171,7 +15183,7 @@
       <c r="C208" s="6">
         <v>23000080</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="19" t="s">
         <v>124</v>
       </c>
       <c r="E208" s="6">
@@ -15206,7 +15218,7 @@
       <c r="C209" s="9">
         <v>23000101</v>
       </c>
-      <c r="D209" s="21" t="s">
+      <c r="D209" s="22" t="s">
         <v>125</v>
       </c>
       <c r="E209" s="9">
@@ -15227,13 +15239,13 @@
       <c r="J209" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K209" s="30">
-        <v>0</v>
-      </c>
-      <c r="L209" s="30">
+      <c r="K209" s="31">
+        <v>0</v>
+      </c>
+      <c r="L209" s="31">
         <v>2000</v>
       </c>
-      <c r="M209" s="30">
+      <c r="M209" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15262,13 +15274,13 @@
       <c r="J210" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K210" s="30">
-        <v>0</v>
-      </c>
-      <c r="L210" s="30">
+      <c r="K210" s="31">
+        <v>0</v>
+      </c>
+      <c r="L210" s="31">
         <v>500</v>
       </c>
-      <c r="M210" s="30">
+      <c r="M210" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15297,13 +15309,13 @@
       <c r="J211" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K211" s="30">
-        <v>0</v>
-      </c>
-      <c r="L211" s="30">
+      <c r="K211" s="31">
+        <v>0</v>
+      </c>
+      <c r="L211" s="31">
         <v>2000</v>
       </c>
-      <c r="M211" s="30">
+      <c r="M211" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15332,13 +15344,13 @@
       <c r="J212" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K212" s="30">
-        <v>0</v>
-      </c>
-      <c r="L212" s="30">
+      <c r="K212" s="31">
+        <v>0</v>
+      </c>
+      <c r="L212" s="31">
         <v>2000</v>
       </c>
-      <c r="M212" s="30">
+      <c r="M212" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15367,13 +15379,13 @@
       <c r="J213" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K213" s="30">
-        <v>0</v>
-      </c>
-      <c r="L213" s="30">
+      <c r="K213" s="31">
+        <v>0</v>
+      </c>
+      <c r="L213" s="31">
         <v>2000</v>
       </c>
-      <c r="M213" s="30">
+      <c r="M213" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15381,7 +15393,7 @@
       <c r="C214" s="9">
         <v>23000106</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="D214" s="23" t="s">
         <v>130</v>
       </c>
       <c r="E214" s="9">
@@ -15393,22 +15405,22 @@
       <c r="G214" s="6">
         <v>10000001</v>
       </c>
-      <c r="H214" s="23">
-        <v>0</v>
-      </c>
-      <c r="I214" s="30">
+      <c r="H214" s="24">
+        <v>0</v>
+      </c>
+      <c r="I214" s="31">
         <v>4</v>
       </c>
-      <c r="J214" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K214" s="30">
-        <v>0</v>
-      </c>
-      <c r="L214" s="30">
+      <c r="J214" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K214" s="31">
+        <v>0</v>
+      </c>
+      <c r="L214" s="31">
         <v>500</v>
       </c>
-      <c r="M214" s="30">
+      <c r="M214" s="31">
         <v>0</v>
       </c>
     </row>
@@ -15696,7 +15708,7 @@
       <c r="C223" s="6">
         <v>30000001</v>
       </c>
-      <c r="D223" s="24" t="s">
+      <c r="D223" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E223" s="6">
@@ -15731,7 +15743,7 @@
       <c r="C224" s="6">
         <v>30000002</v>
       </c>
-      <c r="D224" s="24" t="s">
+      <c r="D224" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E224" s="6">
@@ -15766,7 +15778,7 @@
       <c r="C225" s="6">
         <v>30000004</v>
       </c>
-      <c r="D225" s="24" t="s">
+      <c r="D225" s="25" t="s">
         <v>139</v>
       </c>
       <c r="E225" s="6">
@@ -15801,7 +15813,7 @@
       <c r="C226" s="6">
         <v>30000003</v>
       </c>
-      <c r="D226" s="24" t="s">
+      <c r="D226" s="25" t="s">
         <v>140</v>
       </c>
       <c r="E226" s="6">
@@ -15836,7 +15848,7 @@
       <c r="C227" s="6">
         <v>40000001</v>
       </c>
-      <c r="D227" s="24" t="s">
+      <c r="D227" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E227" s="6">
@@ -15871,7 +15883,7 @@
       <c r="C228" s="6">
         <v>40000002</v>
       </c>
-      <c r="D228" s="24" t="s">
+      <c r="D228" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E228" s="6">
@@ -15906,7 +15918,7 @@
       <c r="C229" s="6">
         <v>40000003</v>
       </c>
-      <c r="D229" s="24" t="s">
+      <c r="D229" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E229" s="6">
@@ -15941,7 +15953,7 @@
       <c r="C230" s="6">
         <v>40000004</v>
       </c>
-      <c r="D230" s="24" t="s">
+      <c r="D230" s="25" t="s">
         <v>145</v>
       </c>
       <c r="E230" s="6">
@@ -15976,7 +15988,7 @@
       <c r="C231" s="6">
         <v>40000005</v>
       </c>
-      <c r="D231" s="24" t="s">
+      <c r="D231" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E231" s="6">
@@ -16011,7 +16023,7 @@
       <c r="C232" s="6">
         <v>40000006</v>
       </c>
-      <c r="D232" s="24" t="s">
+      <c r="D232" s="25" t="s">
         <v>146</v>
       </c>
       <c r="E232" s="6">
@@ -16046,7 +16058,7 @@
       <c r="C233" s="6">
         <v>40000007</v>
       </c>
-      <c r="D233" s="24" t="s">
+      <c r="D233" s="25" t="s">
         <v>147</v>
       </c>
       <c r="E233" s="6">
@@ -16081,7 +16093,7 @@
       <c r="C234" s="6">
         <v>40000008</v>
       </c>
-      <c r="D234" s="24" t="s">
+      <c r="D234" s="25" t="s">
         <v>148</v>
       </c>
       <c r="E234" s="6">
@@ -16116,7 +16128,7 @@
       <c r="C235" s="6">
         <v>50000001</v>
       </c>
-      <c r="D235" s="24" t="s">
+      <c r="D235" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E235" s="6">
@@ -16151,7 +16163,7 @@
       <c r="C236" s="6">
         <v>60000001</v>
       </c>
-      <c r="D236" s="24" t="s">
+      <c r="D236" s="25" t="s">
         <v>150</v>
       </c>
       <c r="E236" s="6">
@@ -16163,7 +16175,7 @@
       <c r="G236" s="6">
         <v>10000001</v>
       </c>
-      <c r="H236" s="15">
+      <c r="H236" s="16">
         <v>0</v>
       </c>
       <c r="I236" s="3">
@@ -16186,7 +16198,7 @@
       <c r="C237" s="6">
         <v>60000002</v>
       </c>
-      <c r="D237" s="24" t="s">
+      <c r="D237" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E237" s="6">
@@ -16198,7 +16210,7 @@
       <c r="G237" s="6">
         <v>10000001</v>
       </c>
-      <c r="H237" s="15">
+      <c r="H237" s="16">
         <v>0</v>
       </c>
       <c r="I237" s="3">
@@ -16221,7 +16233,7 @@
       <c r="C238" s="6">
         <v>60000003</v>
       </c>
-      <c r="D238" s="24" t="s">
+      <c r="D238" s="25" t="s">
         <v>152</v>
       </c>
       <c r="E238" s="6">
@@ -16233,7 +16245,7 @@
       <c r="G238" s="6">
         <v>10000001</v>
       </c>
-      <c r="H238" s="15">
+      <c r="H238" s="16">
         <v>0</v>
       </c>
       <c r="I238" s="3">
@@ -16256,7 +16268,7 @@
       <c r="C239" s="6">
         <v>60000004</v>
       </c>
-      <c r="D239" s="25" t="s">
+      <c r="D239" s="26" t="s">
         <v>130</v>
       </c>
       <c r="E239" s="6">
@@ -16268,7 +16280,7 @@
       <c r="G239" s="6">
         <v>10000001</v>
       </c>
-      <c r="H239" s="15">
+      <c r="H239" s="16">
         <v>0</v>
       </c>
       <c r="I239" s="3">
@@ -16323,7 +16335,7 @@
       </c>
     </row>
     <row r="241" s="6" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C241" s="26">
+      <c r="C241" s="27">
         <v>62001302</v>
       </c>
       <c r="D241" s="6" t="s">
@@ -16358,7 +16370,7 @@
       </c>
     </row>
     <row r="242" s="6" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C242" s="26">
+      <c r="C242" s="27">
         <v>62001202</v>
       </c>
       <c r="D242" s="6" t="s">
@@ -16393,7 +16405,7 @@
       </c>
     </row>
     <row r="243" s="6" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C243" s="26">
+      <c r="C243" s="27">
         <v>62001203</v>
       </c>
       <c r="D243" s="6" t="s">
@@ -16428,7 +16440,7 @@
       </c>
     </row>
     <row r="244" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C244" s="27">
+      <c r="C244" s="28">
         <v>62001204</v>
       </c>
       <c r="D244" s="9" t="s">
@@ -16452,18 +16464,18 @@
       <c r="J244" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K244" s="30">
-        <v>0</v>
-      </c>
-      <c r="L244" s="30">
+      <c r="K244" s="31">
+        <v>0</v>
+      </c>
+      <c r="L244" s="31">
         <v>2000</v>
       </c>
-      <c r="M244" s="30">
+      <c r="M244" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="245" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C245" s="27">
+      <c r="C245" s="28">
         <v>62001205</v>
       </c>
       <c r="D245" s="9" t="s">
@@ -16487,18 +16499,18 @@
       <c r="J245" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K245" s="30">
-        <v>0</v>
-      </c>
-      <c r="L245" s="30">
+      <c r="K245" s="31">
+        <v>0</v>
+      </c>
+      <c r="L245" s="31">
         <v>2000</v>
       </c>
-      <c r="M245" s="30">
+      <c r="M245" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="246" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C246" s="28">
+      <c r="C246" s="29">
         <v>62001401</v>
       </c>
       <c r="D246" s="7" t="s">
@@ -16533,7 +16545,7 @@
       </c>
     </row>
     <row r="247" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C247" s="28">
+      <c r="C247" s="29">
         <v>62001402</v>
       </c>
       <c r="D247" s="7" t="s">
@@ -16568,7 +16580,7 @@
       </c>
     </row>
     <row r="248" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C248" s="27">
+      <c r="C248" s="28">
         <v>62001403</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -16592,18 +16604,18 @@
       <c r="J248" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K248" s="30">
-        <v>0</v>
-      </c>
-      <c r="L248" s="30">
+      <c r="K248" s="31">
+        <v>0</v>
+      </c>
+      <c r="L248" s="31">
         <v>1000</v>
       </c>
-      <c r="M248" s="30">
+      <c r="M248" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="249" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C249" s="28">
+      <c r="C249" s="29">
         <v>62001501</v>
       </c>
       <c r="D249" s="7" t="s">
@@ -16638,7 +16650,7 @@
       </c>
     </row>
     <row r="250" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C250" s="28">
+      <c r="C250" s="29">
         <v>62001502</v>
       </c>
       <c r="D250" s="7" t="s">
@@ -16673,7 +16685,7 @@
       </c>
     </row>
     <row r="251" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C251" s="28">
+      <c r="C251" s="29">
         <v>62001503</v>
       </c>
       <c r="D251" s="7" t="s">
@@ -16732,13 +16744,13 @@
       <c r="J252" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K252" s="30">
-        <v>0</v>
-      </c>
-      <c r="L252" s="30">
+      <c r="K252" s="31">
+        <v>0</v>
+      </c>
+      <c r="L252" s="31">
         <v>2000</v>
       </c>
-      <c r="M252" s="30">
+      <c r="M252" s="31">
         <v>0</v>
       </c>
     </row>
@@ -16767,13 +16779,13 @@
       <c r="J253" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K253" s="30">
-        <v>0</v>
-      </c>
-      <c r="L253" s="30">
+      <c r="K253" s="31">
+        <v>0</v>
+      </c>
+      <c r="L253" s="31">
         <v>5000</v>
       </c>
-      <c r="M253" s="30">
+      <c r="M253" s="31">
         <v>0</v>
       </c>
     </row>
@@ -16802,13 +16814,13 @@
       <c r="J254" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K254" s="30">
-        <v>0</v>
-      </c>
-      <c r="L254" s="30">
+      <c r="K254" s="31">
+        <v>0</v>
+      </c>
+      <c r="L254" s="31">
         <v>2000</v>
       </c>
-      <c r="M254" s="30">
+      <c r="M254" s="31">
         <v>0</v>
       </c>
     </row>
@@ -16953,7 +16965,7 @@
       </c>
     </row>
     <row r="259" s="11" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C259" s="31">
+      <c r="C259" s="32">
         <v>62006101</v>
       </c>
       <c r="D259" s="11" t="s">
@@ -16977,18 +16989,18 @@
       <c r="J259" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K259" s="32">
-        <v>0</v>
-      </c>
-      <c r="L259" s="32">
+      <c r="K259" s="33">
+        <v>0</v>
+      </c>
+      <c r="L259" s="33">
         <v>1000</v>
       </c>
-      <c r="M259" s="32">
+      <c r="M259" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="260" s="11" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C260" s="31">
+      <c r="C260" s="32">
         <v>62006102</v>
       </c>
       <c r="D260" s="11" t="s">
@@ -17012,18 +17024,18 @@
       <c r="J260" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K260" s="32">
-        <v>0</v>
-      </c>
-      <c r="L260" s="32">
+      <c r="K260" s="33">
+        <v>0</v>
+      </c>
+      <c r="L260" s="33">
         <v>3000</v>
       </c>
-      <c r="M260" s="32">
+      <c r="M260" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="261" s="11" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C261" s="31">
+      <c r="C261" s="32">
         <v>62006103</v>
       </c>
       <c r="D261" s="11" t="s">
@@ -17047,18 +17059,18 @@
       <c r="J261" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K261" s="32">
-        <v>0</v>
-      </c>
-      <c r="L261" s="32">
+      <c r="K261" s="33">
+        <v>0</v>
+      </c>
+      <c r="L261" s="33">
         <v>10000</v>
       </c>
-      <c r="M261" s="32">
+      <c r="M261" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="262" s="11" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C262" s="31">
+      <c r="C262" s="32">
         <v>62006104</v>
       </c>
       <c r="D262" s="11" t="s">
@@ -17082,13 +17094,13 @@
       <c r="J262" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K262" s="32">
-        <v>0</v>
-      </c>
-      <c r="L262" s="32">
+      <c r="K262" s="33">
+        <v>0</v>
+      </c>
+      <c r="L262" s="33">
         <v>2000</v>
       </c>
-      <c r="M262" s="32">
+      <c r="M262" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17117,13 +17129,13 @@
       <c r="J263" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K263" s="30">
-        <v>0</v>
-      </c>
-      <c r="L263" s="30">
+      <c r="K263" s="31">
+        <v>0</v>
+      </c>
+      <c r="L263" s="31">
         <v>12000</v>
       </c>
-      <c r="M263" s="30">
+      <c r="M263" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17152,13 +17164,13 @@
       <c r="J264" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K264" s="30">
-        <v>0</v>
-      </c>
-      <c r="L264" s="30">
+      <c r="K264" s="31">
+        <v>0</v>
+      </c>
+      <c r="L264" s="31">
         <v>2000</v>
       </c>
-      <c r="M264" s="30">
+      <c r="M264" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17187,13 +17199,13 @@
       <c r="J265" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K265" s="30">
-        <v>0</v>
-      </c>
-      <c r="L265" s="30">
+      <c r="K265" s="31">
+        <v>0</v>
+      </c>
+      <c r="L265" s="31">
         <v>8000</v>
       </c>
-      <c r="M265" s="30">
+      <c r="M265" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17222,13 +17234,13 @@
       <c r="J266" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K266" s="32">
-        <v>0</v>
-      </c>
-      <c r="L266" s="32">
+      <c r="K266" s="33">
+        <v>0</v>
+      </c>
+      <c r="L266" s="33">
         <v>2000</v>
       </c>
-      <c r="M266" s="32">
+      <c r="M266" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17257,13 +17269,13 @@
       <c r="J267" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K267" s="32">
-        <v>0</v>
-      </c>
-      <c r="L267" s="32">
+      <c r="K267" s="33">
+        <v>0</v>
+      </c>
+      <c r="L267" s="33">
         <v>2000</v>
       </c>
-      <c r="M267" s="32">
+      <c r="M267" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17292,13 +17304,13 @@
       <c r="J268" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K268" s="32">
-        <v>0</v>
-      </c>
-      <c r="L268" s="32">
+      <c r="K268" s="33">
+        <v>0</v>
+      </c>
+      <c r="L268" s="33">
         <v>3000</v>
       </c>
-      <c r="M268" s="32">
+      <c r="M268" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17327,13 +17339,13 @@
       <c r="J269" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K269" s="32">
-        <v>0</v>
-      </c>
-      <c r="L269" s="32">
+      <c r="K269" s="33">
+        <v>0</v>
+      </c>
+      <c r="L269" s="33">
         <v>15000</v>
       </c>
-      <c r="M269" s="32">
+      <c r="M269" s="33">
         <v>0</v>
       </c>
     </row>
@@ -17362,13 +17374,13 @@
       <c r="J270" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K270" s="30">
-        <v>0</v>
-      </c>
-      <c r="L270" s="30">
+      <c r="K270" s="31">
+        <v>0</v>
+      </c>
+      <c r="L270" s="31">
         <v>1200</v>
       </c>
-      <c r="M270" s="30">
+      <c r="M270" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17397,13 +17409,13 @@
       <c r="J271" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K271" s="30">
-        <v>0</v>
-      </c>
-      <c r="L271" s="30">
+      <c r="K271" s="31">
+        <v>0</v>
+      </c>
+      <c r="L271" s="31">
         <v>5000</v>
       </c>
-      <c r="M271" s="30">
+      <c r="M271" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17432,13 +17444,13 @@
       <c r="J272" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K272" s="30">
-        <v>0</v>
-      </c>
-      <c r="L272" s="30">
+      <c r="K272" s="31">
+        <v>0</v>
+      </c>
+      <c r="L272" s="31">
         <v>3000</v>
       </c>
-      <c r="M272" s="30">
+      <c r="M272" s="31">
         <v>0</v>
       </c>
     </row>
@@ -17481,7 +17493,7 @@
       <c r="C274" s="6">
         <v>66001001</v>
       </c>
-      <c r="D274" s="24" t="s">
+      <c r="D274" s="25" t="s">
         <v>181</v>
       </c>
       <c r="E274" s="6">
@@ -17516,7 +17528,7 @@
       <c r="C275" s="6">
         <v>66001002</v>
       </c>
-      <c r="D275" s="24" t="s">
+      <c r="D275" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E275" s="6">
@@ -17551,7 +17563,7 @@
       <c r="C276" s="6">
         <v>66001003</v>
       </c>
-      <c r="D276" s="24" t="s">
+      <c r="D276" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E276" s="6">
@@ -17586,7 +17598,7 @@
       <c r="C277" s="6">
         <v>66001004</v>
       </c>
-      <c r="D277" s="24" t="s">
+      <c r="D277" s="25" t="s">
         <v>183</v>
       </c>
       <c r="E277" s="6">
@@ -17621,7 +17633,7 @@
       <c r="C278" s="6">
         <v>66001005</v>
       </c>
-      <c r="D278" s="24" t="s">
+      <c r="D278" s="25" t="s">
         <v>184</v>
       </c>
       <c r="E278" s="6">
@@ -17656,7 +17668,7 @@
       <c r="C279" s="6">
         <v>66001006</v>
       </c>
-      <c r="D279" s="24" t="s">
+      <c r="D279" s="25" t="s">
         <v>185</v>
       </c>
       <c r="E279" s="6">
@@ -17691,7 +17703,7 @@
       <c r="C280" s="6">
         <v>66001007</v>
       </c>
-      <c r="D280" s="24" t="s">
+      <c r="D280" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E280" s="6">
@@ -17726,7 +17738,7 @@
       <c r="C281" s="6">
         <v>66001008</v>
       </c>
-      <c r="D281" s="24" t="s">
+      <c r="D281" s="25" t="s">
         <v>187</v>
       </c>
       <c r="E281" s="6">
@@ -17761,7 +17773,7 @@
       <c r="C282" s="6">
         <v>66001009</v>
       </c>
-      <c r="D282" s="24" t="s">
+      <c r="D282" s="25" t="s">
         <v>188</v>
       </c>
       <c r="E282" s="6">
@@ -17796,7 +17808,7 @@
       <c r="C283" s="6">
         <v>66001010</v>
       </c>
-      <c r="D283" s="24" t="s">
+      <c r="D283" s="25" t="s">
         <v>189</v>
       </c>
       <c r="E283" s="6">
@@ -17831,7 +17843,7 @@
       <c r="C284" s="6">
         <v>66001011</v>
       </c>
-      <c r="D284" s="24" t="s">
+      <c r="D284" s="25" t="s">
         <v>190</v>
       </c>
       <c r="E284" s="6">
@@ -18247,38 +18259,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" s="6" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C296" s="6">
+    <row r="296" s="12" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C296" s="12">
         <v>70106005</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="D296" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E296" s="6">
-        <v>1</v>
-      </c>
-      <c r="F296" s="6">
-        <v>0</v>
-      </c>
-      <c r="G296" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="H296" s="6">
-        <v>0</v>
-      </c>
-      <c r="I296" s="6">
-        <v>1</v>
-      </c>
-      <c r="J296" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K296" s="3">
-        <v>0</v>
-      </c>
-      <c r="L296" s="3">
+      <c r="E296" s="12">
+        <v>1</v>
+      </c>
+      <c r="F296" s="12">
+        <v>0</v>
+      </c>
+      <c r="G296" s="12">
+        <v>70106005</v>
+      </c>
+      <c r="H296" s="12">
+        <v>0</v>
+      </c>
+      <c r="I296" s="12">
+        <v>1</v>
+      </c>
+      <c r="J296" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K296" s="34">
+        <v>0</v>
+      </c>
+      <c r="L296" s="34">
         <v>30000</v>
       </c>
-      <c r="M296" s="3">
+      <c r="M296" s="34">
         <v>0</v>
       </c>
     </row>
@@ -18811,7 +18823,7 @@
       <c r="C312" s="6">
         <v>70204004</v>
       </c>
-      <c r="D312" s="24" t="s">
+      <c r="D312" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E312" s="6">
@@ -20503,7 +20515,7 @@
       <c r="G360" s="6">
         <v>10000001</v>
       </c>
-      <c r="H360" s="15">
+      <c r="H360" s="16">
         <v>0</v>
       </c>
       <c r="I360" s="6">
@@ -20538,7 +20550,7 @@
       <c r="G361" s="6">
         <v>10000001</v>
       </c>
-      <c r="H361" s="15">
+      <c r="H361" s="16">
         <v>0</v>
       </c>
       <c r="I361" s="6">
@@ -20573,7 +20585,7 @@
       <c r="G362" s="6">
         <v>10000001</v>
       </c>
-      <c r="H362" s="15">
+      <c r="H362" s="16">
         <v>0</v>
       </c>
       <c r="I362" s="6">
@@ -20608,7 +20620,7 @@
       <c r="G363" s="6">
         <v>10000001</v>
       </c>
-      <c r="H363" s="15">
+      <c r="H363" s="16">
         <v>0</v>
       </c>
       <c r="I363" s="6">
@@ -20643,7 +20655,7 @@
       <c r="G364" s="6">
         <v>10000001</v>
       </c>
-      <c r="H364" s="15">
+      <c r="H364" s="16">
         <v>0</v>
       </c>
       <c r="I364" s="6">
@@ -20678,7 +20690,7 @@
       <c r="G365" s="6">
         <v>10000001</v>
       </c>
-      <c r="H365" s="15">
+      <c r="H365" s="16">
         <v>0</v>
       </c>
       <c r="I365" s="6">
@@ -20713,7 +20725,7 @@
       <c r="G366" s="6">
         <v>10000001</v>
       </c>
-      <c r="H366" s="15">
+      <c r="H366" s="16">
         <v>0</v>
       </c>
       <c r="I366" s="6">
@@ -21117,43 +21129,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" s="12" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C378" s="13">
+    <row r="378" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C378" s="14">
         <v>91000315</v>
       </c>
-      <c r="D378" s="33" t="s">
+      <c r="D378" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="E378" s="13">
-        <v>1</v>
-      </c>
-      <c r="F378" s="13">
+      <c r="E378" s="14">
+        <v>1</v>
+      </c>
+      <c r="F378" s="14">
         <v>0</v>
       </c>
       <c r="G378" s="6">
         <v>10000001</v>
       </c>
-      <c r="H378" s="34">
-        <v>0</v>
-      </c>
-      <c r="I378" s="35">
+      <c r="H378" s="36">
+        <v>0</v>
+      </c>
+      <c r="I378" s="37">
         <v>4</v>
       </c>
-      <c r="J378" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K378" s="35">
-        <v>0</v>
-      </c>
-      <c r="L378" s="35">
+      <c r="J378" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K378" s="37">
+        <v>0</v>
+      </c>
+      <c r="L378" s="37">
         <v>5000</v>
       </c>
-      <c r="M378" s="35">
+      <c r="M378" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="379" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C379" s="28">
+      <c r="C379" s="29">
         <v>77001101</v>
       </c>
       <c r="D379" s="7" t="s">
@@ -21188,7 +21200,7 @@
       </c>
     </row>
     <row r="380" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C380" s="28">
+      <c r="C380" s="29">
         <v>77001102</v>
       </c>
       <c r="D380" s="7" t="s">
@@ -21223,7 +21235,7 @@
       </c>
     </row>
     <row r="381" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C381" s="28">
+      <c r="C381" s="29">
         <v>77001103</v>
       </c>
       <c r="D381" s="7" t="s">
@@ -21258,7 +21270,7 @@
       </c>
     </row>
     <row r="382" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C382" s="28">
+      <c r="C382" s="29">
         <v>77001104</v>
       </c>
       <c r="D382" s="7" t="s">
@@ -21293,7 +21305,7 @@
       </c>
     </row>
     <row r="383" s="7" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C383" s="28">
+      <c r="C383" s="29">
         <v>77001105</v>
       </c>
       <c r="D383" s="7" t="s">
@@ -21327,183 +21339,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C384" s="13">
+    <row r="384" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C384" s="14">
         <v>77001201</v>
       </c>
-      <c r="D384" s="13" t="s">
+      <c r="D384" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="E384" s="13">
-        <v>1</v>
-      </c>
-      <c r="F384" s="13">
+      <c r="E384" s="14">
+        <v>1</v>
+      </c>
+      <c r="F384" s="14">
         <v>0</v>
       </c>
       <c r="G384" s="6">
         <v>10000001</v>
       </c>
-      <c r="H384" s="13">
-        <v>1</v>
-      </c>
-      <c r="I384" s="13">
-        <v>1</v>
-      </c>
-      <c r="J384" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K384" s="35">
-        <v>0</v>
-      </c>
-      <c r="L384" s="35">
+      <c r="H384" s="14">
+        <v>1</v>
+      </c>
+      <c r="I384" s="14">
+        <v>1</v>
+      </c>
+      <c r="J384" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K384" s="37">
+        <v>0</v>
+      </c>
+      <c r="L384" s="37">
         <v>2000</v>
       </c>
-      <c r="M384" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C385" s="13">
+      <c r="M384" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C385" s="14">
         <v>77001202</v>
       </c>
-      <c r="D385" s="13" t="s">
+      <c r="D385" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E385" s="13">
-        <v>1</v>
-      </c>
-      <c r="F385" s="13">
+      <c r="E385" s="14">
+        <v>1</v>
+      </c>
+      <c r="F385" s="14">
         <v>0</v>
       </c>
       <c r="G385" s="6">
         <v>10000001</v>
       </c>
-      <c r="H385" s="13">
-        <v>0</v>
-      </c>
-      <c r="I385" s="13">
-        <v>1</v>
-      </c>
-      <c r="J385" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K385" s="35">
-        <v>0</v>
-      </c>
-      <c r="L385" s="35">
+      <c r="H385" s="14">
+        <v>0</v>
+      </c>
+      <c r="I385" s="14">
+        <v>1</v>
+      </c>
+      <c r="J385" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K385" s="37">
+        <v>0</v>
+      </c>
+      <c r="L385" s="37">
         <v>2000</v>
       </c>
-      <c r="M385" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C386" s="13">
+      <c r="M385" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C386" s="14">
         <v>77001203</v>
       </c>
-      <c r="D386" s="13" t="s">
+      <c r="D386" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E386" s="13">
-        <v>1</v>
-      </c>
-      <c r="F386" s="13">
+      <c r="E386" s="14">
+        <v>1</v>
+      </c>
+      <c r="F386" s="14">
         <v>0</v>
       </c>
       <c r="G386" s="6">
         <v>10000001</v>
       </c>
-      <c r="H386" s="13">
+      <c r="H386" s="14">
         <v>1.8</v>
       </c>
-      <c r="I386" s="13">
-        <v>1</v>
-      </c>
-      <c r="J386" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K386" s="35">
-        <v>0</v>
-      </c>
-      <c r="L386" s="35">
+      <c r="I386" s="14">
+        <v>1</v>
+      </c>
+      <c r="J386" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K386" s="37">
+        <v>0</v>
+      </c>
+      <c r="L386" s="37">
         <v>3000</v>
       </c>
-      <c r="M386" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C387" s="13">
+      <c r="M386" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C387" s="14">
         <v>77001204</v>
       </c>
-      <c r="D387" s="13" t="s">
+      <c r="D387" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E387" s="13">
-        <v>1</v>
-      </c>
-      <c r="F387" s="13">
+      <c r="E387" s="14">
+        <v>1</v>
+      </c>
+      <c r="F387" s="14">
         <v>0</v>
       </c>
       <c r="G387" s="6">
         <v>10000001</v>
       </c>
-      <c r="H387" s="13">
-        <v>0</v>
-      </c>
-      <c r="I387" s="13">
-        <v>1</v>
-      </c>
-      <c r="J387" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K387" s="35">
-        <v>0</v>
-      </c>
-      <c r="L387" s="35">
+      <c r="H387" s="14">
+        <v>0</v>
+      </c>
+      <c r="I387" s="14">
+        <v>1</v>
+      </c>
+      <c r="J387" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K387" s="37">
+        <v>0</v>
+      </c>
+      <c r="L387" s="37">
         <v>8000</v>
       </c>
-      <c r="M387" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C388" s="13">
+      <c r="M387" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C388" s="14">
         <v>77001205</v>
       </c>
-      <c r="D388" s="13" t="s">
+      <c r="D388" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E388" s="13">
-        <v>1</v>
-      </c>
-      <c r="F388" s="13">
+      <c r="E388" s="14">
+        <v>1</v>
+      </c>
+      <c r="F388" s="14">
         <v>0</v>
       </c>
       <c r="G388" s="6">
         <v>10000001</v>
       </c>
-      <c r="H388" s="13">
+      <c r="H388" s="14">
         <v>0.5</v>
       </c>
-      <c r="I388" s="13">
-        <v>1</v>
-      </c>
-      <c r="J388" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K388" s="35">
-        <v>0</v>
-      </c>
-      <c r="L388" s="35">
+      <c r="I388" s="14">
+        <v>1</v>
+      </c>
+      <c r="J388" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K388" s="37">
+        <v>0</v>
+      </c>
+      <c r="L388" s="37">
         <v>8000</v>
       </c>
-      <c r="M388" s="35">
+      <c r="M388" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="389" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C389" s="27">
+      <c r="C389" s="28">
         <v>77001301</v>
       </c>
       <c r="D389" s="9" t="s">
@@ -21527,18 +21539,18 @@
       <c r="J389" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K389" s="30">
-        <v>0</v>
-      </c>
-      <c r="L389" s="30">
+      <c r="K389" s="31">
+        <v>0</v>
+      </c>
+      <c r="L389" s="31">
         <v>3000</v>
       </c>
-      <c r="M389" s="30">
+      <c r="M389" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="390" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C390" s="27">
+      <c r="C390" s="28">
         <v>77001302</v>
       </c>
       <c r="D390" s="9" t="s">
@@ -21562,18 +21574,18 @@
       <c r="J390" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K390" s="30">
-        <v>0</v>
-      </c>
-      <c r="L390" s="30">
+      <c r="K390" s="31">
+        <v>0</v>
+      </c>
+      <c r="L390" s="31">
         <v>3000</v>
       </c>
-      <c r="M390" s="30">
+      <c r="M390" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="391" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C391" s="27">
+      <c r="C391" s="28">
         <v>77001303</v>
       </c>
       <c r="D391" s="9" t="s">
@@ -21597,18 +21609,18 @@
       <c r="J391" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K391" s="30">
-        <v>0</v>
-      </c>
-      <c r="L391" s="30">
+      <c r="K391" s="31">
+        <v>0</v>
+      </c>
+      <c r="L391" s="31">
         <v>8000</v>
       </c>
-      <c r="M391" s="30">
+      <c r="M391" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="392" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C392" s="27">
+      <c r="C392" s="28">
         <v>77001304</v>
       </c>
       <c r="D392" s="9" t="s">
@@ -21632,18 +21644,18 @@
       <c r="J392" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K392" s="30">
-        <v>0</v>
-      </c>
-      <c r="L392" s="30">
+      <c r="K392" s="31">
+        <v>0</v>
+      </c>
+      <c r="L392" s="31">
         <v>2000</v>
       </c>
-      <c r="M392" s="30">
+      <c r="M392" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="393" s="9" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C393" s="27">
+      <c r="C393" s="28">
         <v>77001305</v>
       </c>
       <c r="D393" s="9" t="s">
@@ -21667,13 +21679,13 @@
       <c r="J393" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K393" s="30">
-        <v>0</v>
-      </c>
-      <c r="L393" s="30">
+      <c r="K393" s="31">
+        <v>0</v>
+      </c>
+      <c r="L393" s="31">
         <v>3000</v>
       </c>
-      <c r="M393" s="30">
+      <c r="M393" s="31">
         <v>0</v>
       </c>
     </row>
@@ -21922,283 +21934,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C401" s="13">
+    <row r="401" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C401" s="14">
         <v>77001501</v>
       </c>
-      <c r="D401" s="13" t="s">
+      <c r="D401" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E401" s="13">
-        <v>1</v>
-      </c>
-      <c r="F401" s="13">
+      <c r="E401" s="14">
+        <v>1</v>
+      </c>
+      <c r="F401" s="14">
         <v>0</v>
       </c>
       <c r="G401" s="6">
         <v>10000001</v>
       </c>
-      <c r="H401" s="13">
+      <c r="H401" s="14">
         <v>0.7</v>
       </c>
-      <c r="I401" s="13">
-        <v>1</v>
-      </c>
-      <c r="J401" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K401" s="35">
-        <v>0</v>
-      </c>
-      <c r="L401" s="35">
+      <c r="I401" s="14">
+        <v>1</v>
+      </c>
+      <c r="J401" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K401" s="37">
+        <v>0</v>
+      </c>
+      <c r="L401" s="37">
         <v>2000</v>
       </c>
-      <c r="M401" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C402" s="13">
+      <c r="M401" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C402" s="14">
         <v>77001502</v>
       </c>
-      <c r="D402" s="13" t="s">
+      <c r="D402" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E402" s="13">
-        <v>1</v>
-      </c>
-      <c r="F402" s="13">
+      <c r="E402" s="14">
+        <v>1</v>
+      </c>
+      <c r="F402" s="14">
         <v>0</v>
       </c>
       <c r="G402" s="6">
         <v>10000001</v>
       </c>
-      <c r="H402" s="13">
+      <c r="H402" s="14">
         <v>0.4</v>
       </c>
-      <c r="I402" s="13">
-        <v>1</v>
-      </c>
-      <c r="J402" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K402" s="35">
-        <v>0</v>
-      </c>
-      <c r="L402" s="35">
+      <c r="I402" s="14">
+        <v>1</v>
+      </c>
+      <c r="J402" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K402" s="37">
+        <v>0</v>
+      </c>
+      <c r="L402" s="37">
         <v>2000</v>
       </c>
-      <c r="M402" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C403" s="13">
+      <c r="M402" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C403" s="14">
         <v>77001503</v>
       </c>
-      <c r="D403" s="13" t="s">
+      <c r="D403" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E403" s="13">
-        <v>1</v>
-      </c>
-      <c r="F403" s="13">
+      <c r="E403" s="14">
+        <v>1</v>
+      </c>
+      <c r="F403" s="14">
         <v>0</v>
       </c>
       <c r="G403" s="6">
         <v>10000001</v>
       </c>
-      <c r="H403" s="13">
-        <v>0</v>
-      </c>
-      <c r="I403" s="13">
-        <v>1</v>
-      </c>
-      <c r="J403" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K403" s="35">
-        <v>0</v>
-      </c>
-      <c r="L403" s="35">
+      <c r="H403" s="14">
+        <v>0</v>
+      </c>
+      <c r="I403" s="14">
+        <v>1</v>
+      </c>
+      <c r="J403" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K403" s="37">
+        <v>0</v>
+      </c>
+      <c r="L403" s="37">
         <v>999999</v>
       </c>
-      <c r="M403" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C404" s="13">
+      <c r="M403" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C404" s="14">
         <v>77001504</v>
       </c>
-      <c r="D404" s="13" t="s">
+      <c r="D404" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E404" s="13">
-        <v>1</v>
-      </c>
-      <c r="F404" s="13">
+      <c r="E404" s="14">
+        <v>1</v>
+      </c>
+      <c r="F404" s="14">
         <v>0</v>
       </c>
       <c r="G404" s="6">
         <v>10000001</v>
       </c>
-      <c r="H404" s="13">
+      <c r="H404" s="14">
         <v>0.2</v>
       </c>
-      <c r="I404" s="13">
-        <v>1</v>
-      </c>
-      <c r="J404" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K404" s="35">
-        <v>0</v>
-      </c>
-      <c r="L404" s="35">
+      <c r="I404" s="14">
+        <v>1</v>
+      </c>
+      <c r="J404" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K404" s="37">
+        <v>0</v>
+      </c>
+      <c r="L404" s="37">
         <v>2000</v>
       </c>
-      <c r="M404" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C405" s="13">
+      <c r="M404" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C405" s="14">
         <v>77001505</v>
       </c>
-      <c r="D405" s="13" t="s">
+      <c r="D405" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E405" s="13">
-        <v>1</v>
-      </c>
-      <c r="F405" s="13">
+      <c r="E405" s="14">
+        <v>1</v>
+      </c>
+      <c r="F405" s="14">
         <v>0</v>
       </c>
       <c r="G405" s="6">
         <v>10000001</v>
       </c>
-      <c r="H405" s="13">
+      <c r="H405" s="14">
         <v>0.8</v>
       </c>
-      <c r="I405" s="13">
-        <v>1</v>
-      </c>
-      <c r="J405" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K405" s="35">
-        <v>0</v>
-      </c>
-      <c r="L405" s="35">
+      <c r="I405" s="14">
+        <v>1</v>
+      </c>
+      <c r="J405" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K405" s="37">
+        <v>0</v>
+      </c>
+      <c r="L405" s="37">
         <v>2000</v>
       </c>
-      <c r="M405" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C406" s="13">
+      <c r="M405" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C406" s="14">
         <v>77001506</v>
       </c>
-      <c r="D406" s="13" t="s">
+      <c r="D406" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E406" s="13">
-        <v>1</v>
-      </c>
-      <c r="F406" s="13">
+      <c r="E406" s="14">
+        <v>1</v>
+      </c>
+      <c r="F406" s="14">
         <v>0</v>
       </c>
       <c r="G406" s="6">
         <v>10000001</v>
       </c>
-      <c r="H406" s="13">
+      <c r="H406" s="14">
         <v>1.3</v>
       </c>
-      <c r="I406" s="13">
-        <v>1</v>
-      </c>
-      <c r="J406" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K406" s="35">
-        <v>0</v>
-      </c>
-      <c r="L406" s="35">
+      <c r="I406" s="14">
+        <v>1</v>
+      </c>
+      <c r="J406" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K406" s="37">
+        <v>0</v>
+      </c>
+      <c r="L406" s="37">
         <v>2000</v>
       </c>
-      <c r="M406" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C407" s="13">
+      <c r="M406" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C407" s="14">
         <v>77001507</v>
       </c>
-      <c r="D407" s="13" t="s">
+      <c r="D407" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E407" s="13">
-        <v>1</v>
-      </c>
-      <c r="F407" s="13">
+      <c r="E407" s="14">
+        <v>1</v>
+      </c>
+      <c r="F407" s="14">
         <v>0</v>
       </c>
       <c r="G407" s="6">
         <v>10000001</v>
       </c>
-      <c r="H407" s="13">
-        <v>0</v>
-      </c>
-      <c r="I407" s="13">
-        <v>1</v>
-      </c>
-      <c r="J407" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K407" s="35">
-        <v>0</v>
-      </c>
-      <c r="L407" s="35">
+      <c r="H407" s="14">
+        <v>0</v>
+      </c>
+      <c r="I407" s="14">
+        <v>1</v>
+      </c>
+      <c r="J407" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K407" s="37">
+        <v>0</v>
+      </c>
+      <c r="L407" s="37">
         <v>2000</v>
       </c>
-      <c r="M407" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" s="13" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C408" s="13">
+      <c r="M407" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" s="14" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C408" s="14">
         <v>77001508</v>
       </c>
-      <c r="D408" s="13" t="s">
+      <c r="D408" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E408" s="13">
-        <v>1</v>
-      </c>
-      <c r="F408" s="13">
+      <c r="E408" s="14">
+        <v>1</v>
+      </c>
+      <c r="F408" s="14">
         <v>0</v>
       </c>
       <c r="G408" s="6">
         <v>10000001</v>
       </c>
-      <c r="H408" s="13">
-        <v>0</v>
-      </c>
-      <c r="I408" s="13">
-        <v>0</v>
-      </c>
-      <c r="J408" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K408" s="35">
-        <v>0</v>
-      </c>
-      <c r="L408" s="35">
+      <c r="H408" s="14">
+        <v>0</v>
+      </c>
+      <c r="I408" s="14">
+        <v>0</v>
+      </c>
+      <c r="J408" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K408" s="37">
+        <v>0</v>
+      </c>
+      <c r="L408" s="37">
         <v>20000</v>
       </c>
-      <c r="M408" s="35">
+      <c r="M408" s="37">
         <v>0</v>
       </c>
     </row>
@@ -22367,13 +22379,13 @@
       <c r="J413" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K413" s="32">
-        <v>0</v>
-      </c>
-      <c r="L413" s="32">
+      <c r="K413" s="33">
+        <v>0</v>
+      </c>
+      <c r="L413" s="33">
         <v>1200</v>
       </c>
-      <c r="M413" s="32">
+      <c r="M413" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22402,13 +22414,13 @@
       <c r="J414" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K414" s="32">
-        <v>0</v>
-      </c>
-      <c r="L414" s="32">
+      <c r="K414" s="33">
+        <v>0</v>
+      </c>
+      <c r="L414" s="33">
         <v>1200</v>
       </c>
-      <c r="M414" s="32">
+      <c r="M414" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22437,13 +22449,13 @@
       <c r="J415" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K415" s="32">
-        <v>0</v>
-      </c>
-      <c r="L415" s="32">
+      <c r="K415" s="33">
+        <v>0</v>
+      </c>
+      <c r="L415" s="33">
         <v>1000</v>
       </c>
-      <c r="M415" s="32">
+      <c r="M415" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22472,13 +22484,13 @@
       <c r="J416" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K416" s="32">
-        <v>0</v>
-      </c>
-      <c r="L416" s="32">
+      <c r="K416" s="33">
+        <v>0</v>
+      </c>
+      <c r="L416" s="33">
         <v>1000</v>
       </c>
-      <c r="M416" s="32">
+      <c r="M416" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22507,13 +22519,13 @@
       <c r="J417" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K417" s="32">
-        <v>0</v>
-      </c>
-      <c r="L417" s="32">
+      <c r="K417" s="33">
+        <v>0</v>
+      </c>
+      <c r="L417" s="33">
         <v>2000</v>
       </c>
-      <c r="M417" s="32">
+      <c r="M417" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22542,13 +22554,13 @@
       <c r="J418" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K418" s="32">
-        <v>0</v>
-      </c>
-      <c r="L418" s="32">
+      <c r="K418" s="33">
+        <v>0</v>
+      </c>
+      <c r="L418" s="33">
         <v>3000</v>
       </c>
-      <c r="M418" s="32">
+      <c r="M418" s="33">
         <v>0</v>
       </c>
     </row>
@@ -22577,13 +22589,13 @@
       <c r="J419" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K419" s="30">
-        <v>0</v>
-      </c>
-      <c r="L419" s="30">
+      <c r="K419" s="31">
+        <v>0</v>
+      </c>
+      <c r="L419" s="31">
         <v>2000</v>
       </c>
-      <c r="M419" s="30">
+      <c r="M419" s="31">
         <v>0</v>
       </c>
     </row>
@@ -22612,13 +22624,13 @@
       <c r="J420" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K420" s="30">
-        <v>0</v>
-      </c>
-      <c r="L420" s="30">
+      <c r="K420" s="31">
+        <v>0</v>
+      </c>
+      <c r="L420" s="31">
         <v>12000</v>
       </c>
-      <c r="M420" s="30">
+      <c r="M420" s="31">
         <v>0</v>
       </c>
     </row>
@@ -22647,13 +22659,13 @@
       <c r="J421" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K421" s="30">
-        <v>0</v>
-      </c>
-      <c r="L421" s="30">
+      <c r="K421" s="31">
+        <v>0</v>
+      </c>
+      <c r="L421" s="31">
         <v>3000</v>
       </c>
-      <c r="M421" s="30">
+      <c r="M421" s="31">
         <v>0</v>
       </c>
     </row>
@@ -22962,13 +22974,13 @@
       <c r="J430" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K430" s="30">
-        <v>0</v>
-      </c>
-      <c r="L430" s="30">
+      <c r="K430" s="31">
+        <v>0</v>
+      </c>
+      <c r="L430" s="31">
         <v>2500</v>
       </c>
-      <c r="M430" s="30">
+      <c r="M430" s="31">
         <v>0</v>
       </c>
     </row>
@@ -22997,13 +23009,13 @@
       <c r="J431" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K431" s="30">
-        <v>0</v>
-      </c>
-      <c r="L431" s="30">
+      <c r="K431" s="31">
+        <v>0</v>
+      </c>
+      <c r="L431" s="31">
         <v>5000</v>
       </c>
-      <c r="M431" s="30">
+      <c r="M431" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23032,13 +23044,13 @@
       <c r="J432" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K432" s="30">
-        <v>0</v>
-      </c>
-      <c r="L432" s="30">
+      <c r="K432" s="31">
+        <v>0</v>
+      </c>
+      <c r="L432" s="31">
         <v>1000</v>
       </c>
-      <c r="M432" s="30">
+      <c r="M432" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23067,13 +23079,13 @@
       <c r="J433" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K433" s="30">
-        <v>0</v>
-      </c>
-      <c r="L433" s="30">
+      <c r="K433" s="31">
+        <v>0</v>
+      </c>
+      <c r="L433" s="31">
         <v>1000</v>
       </c>
-      <c r="M433" s="30">
+      <c r="M433" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23102,13 +23114,13 @@
       <c r="J434" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K434" s="30">
-        <v>0</v>
-      </c>
-      <c r="L434" s="30">
+      <c r="K434" s="31">
+        <v>0</v>
+      </c>
+      <c r="L434" s="31">
         <v>1000</v>
       </c>
-      <c r="M434" s="30">
+      <c r="M434" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23137,13 +23149,13 @@
       <c r="J435" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K435" s="30">
-        <v>0</v>
-      </c>
-      <c r="L435" s="30">
+      <c r="K435" s="31">
+        <v>0</v>
+      </c>
+      <c r="L435" s="31">
         <v>1000</v>
       </c>
-      <c r="M435" s="30">
+      <c r="M435" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23172,13 +23184,13 @@
       <c r="J436" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K436" s="30">
-        <v>0</v>
-      </c>
-      <c r="L436" s="30">
+      <c r="K436" s="31">
+        <v>0</v>
+      </c>
+      <c r="L436" s="31">
         <v>1000</v>
       </c>
-      <c r="M436" s="30">
+      <c r="M436" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23207,13 +23219,13 @@
       <c r="J437" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K437" s="30">
-        <v>0</v>
-      </c>
-      <c r="L437" s="30">
+      <c r="K437" s="31">
+        <v>0</v>
+      </c>
+      <c r="L437" s="31">
         <v>2000</v>
       </c>
-      <c r="M437" s="30">
+      <c r="M437" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23242,13 +23254,13 @@
       <c r="J438" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K438" s="30">
-        <v>0</v>
-      </c>
-      <c r="L438" s="30">
+      <c r="K438" s="31">
+        <v>0</v>
+      </c>
+      <c r="L438" s="31">
         <v>2000</v>
       </c>
-      <c r="M438" s="30">
+      <c r="M438" s="31">
         <v>0</v>
       </c>
     </row>
@@ -23277,13 +23289,13 @@
       <c r="J439" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K439" s="32">
-        <v>0</v>
-      </c>
-      <c r="L439" s="32">
+      <c r="K439" s="33">
+        <v>0</v>
+      </c>
+      <c r="L439" s="33">
         <v>2000</v>
       </c>
-      <c r="M439" s="32">
+      <c r="M439" s="33">
         <v>0</v>
       </c>
     </row>
@@ -23312,13 +23324,13 @@
       <c r="J440" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K440" s="32">
-        <v>0</v>
-      </c>
-      <c r="L440" s="32">
+      <c r="K440" s="33">
+        <v>0</v>
+      </c>
+      <c r="L440" s="33">
         <v>2000</v>
       </c>
-      <c r="M440" s="32">
+      <c r="M440" s="33">
         <v>0</v>
       </c>
     </row>
@@ -23347,13 +23359,13 @@
       <c r="J441" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K441" s="32">
-        <v>0</v>
-      </c>
-      <c r="L441" s="32">
+      <c r="K441" s="33">
+        <v>0</v>
+      </c>
+      <c r="L441" s="33">
         <v>1000</v>
       </c>
-      <c r="M441" s="32">
+      <c r="M441" s="33">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD16D4-51DE-4ED8-8B65-E9C61E76A1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710776BC-67B3-4D22-AAEE-688FC92D4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7669,7 +7669,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7806,7 +7806,7 @@
         <v>274</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>254</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>254</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>255</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>256</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>257</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B9E4E-277E-4319-AD13-38063249B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75C89D-31B6-42D9-B341-C3B797C80A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7696,10 +7696,10 @@
   <dimension ref="C1:M451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E2582-A2C1-4B8F-8431-B3A560F1F6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E6D25-03F9-4400-A540-01A05C52E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7710,7 +7710,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E6D25-03F9-4400-A540-01A05C52E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF6888-8C44-4677-8F6E-196842F5E508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuffProto" sheetId="1" r:id="rId1"/>
@@ -7707,10 +7707,10 @@
   <dimension ref="C1:M452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7859,7 +7859,7 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>26</v>
@@ -7894,7 +7894,7 @@
         <v>0.4</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>26</v>
@@ -7929,7 +7929,7 @@
         <v>0.2</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>26</v>
@@ -7964,7 +7964,7 @@
         <v>0.2</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>26</v>
@@ -7999,7 +7999,7 @@
         <v>0.2</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>26</v>
@@ -8034,7 +8034,7 @@
         <v>0.2</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>26</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -1218,7 +1218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,13 +1425,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -1449,6 +1442,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -1461,18 +1459,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1803,48 +1796,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -2157,4224 +2108,4224 @@
     <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="62" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7969,7 +7920,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{7A90B171-7FBC-432A-813F-E426AAED92E4}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{87330B9A-BD2F-4BD9-BA75-69B3BB36BD7A}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -8272,11 +8223,11 @@
   <dimension ref="C1:N454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9161,7 +9112,7 @@
         <v>0.4</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>29</v>
@@ -9199,7 +9150,7 @@
         <v>0.7</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>29</v>
@@ -9237,7 +9188,7 @@
         <v>0.5</v>
       </c>
       <c r="I28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>29</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -9112,7 +9112,7 @@
         <v>0.4</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>29</v>
@@ -9149,8 +9149,8 @@
       <c r="H27" s="6">
         <v>0.7</v>
       </c>
-      <c r="I27" s="6">
-        <v>0</v>
+      <c r="I27" s="3">
+        <v>1</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>29</v>
@@ -9188,7 +9188,7 @@
         <v>0.5</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>29</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183388A3-DE4F-401B-882E-4BA131DFA427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB31B4-1A24-41E1-B86A-5E29F2842BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7871,10 +7871,10 @@
   <dimension ref="C1:N484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="30" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="3">
-        <v>2101010</v>
+        <v>21010100</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>316</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="31" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="3">
-        <v>2101020</v>
+        <v>21010200</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>317</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="32" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="3">
-        <v>2101030</v>
+        <v>21010300</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>318</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="33" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="3">
-        <v>2102010</v>
+        <v>21020100</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>319</v>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="34" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="3">
-        <v>2102020</v>
+        <v>21020200</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>320</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="35" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="3">
-        <v>2102030</v>
+        <v>21020300</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>321</v>
@@ -9126,7 +9126,7 @@
     </row>
     <row r="36" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="3">
-        <v>2103010</v>
+        <v>21030100</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>322</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="37" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="3">
-        <v>2103020</v>
+        <v>21030200</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>125</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="38" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="3">
-        <v>2103030</v>
+        <v>21030300</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>323</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB31B4-1A24-41E1-B86A-5E29F2842BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0742B2C-E692-427A-8D54-B48B10D1D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7874,7 +7874,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8913,7 +8913,7 @@
         <v>288</v>
       </c>
       <c r="H30" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -8951,7 +8951,7 @@
         <v>289</v>
       </c>
       <c r="H31" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B11869-8CF1-4D06-A3DF-43D4AD05B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDD3BD-EB48-49D6-AE17-8B70C97CA913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuffProto" sheetId="1" r:id="rId1"/>
@@ -6048,7 +6048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6135,9 +6135,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1429">
@@ -7900,10 +7897,10 @@
   <dimension ref="C1:N488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8549,7 +8546,7 @@
       <c r="C20" s="3">
         <v>300001</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="6" t="s">
         <v>349</v>
       </c>
       <c r="E20" s="3">
@@ -8574,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -8587,7 +8584,7 @@
       <c r="C21" s="3">
         <v>300002</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="6" t="s">
         <v>350</v>
       </c>
       <c r="E21" s="3">

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEDD3BD-EB48-49D6-AE17-8B70C97CA913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC957C-5AE3-4B19-89F2-A7AF1627E208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="352">
   <si>
     <t>#</t>
   </si>
@@ -1424,6 +1424,10 @@
   </si>
   <si>
     <t>通用持续加血特效</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -7900,7 +7904,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9401,7 +9405,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC957C-5AE3-4B19-89F2-A7AF1627E208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98C5F2-E100-4B79-BC86-EF5CA5F0C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7901,10 +7901,10 @@
   <dimension ref="C1:N488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8076,6 +8076,9 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="6">
@@ -8111,6 +8114,9 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="6">
@@ -8146,6 +8152,9 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="6">
@@ -8181,6 +8190,9 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="6">
@@ -8216,6 +8228,9 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="3:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="6">
@@ -8251,6 +8266,9 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="3">
@@ -8286,7 +8304,9 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="3">
@@ -8322,7 +8342,9 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="3">
@@ -8358,7 +8380,9 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="3">
@@ -8394,7 +8418,9 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="3">
@@ -8430,7 +8456,9 @@
       <c r="M16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="3:14" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="3">

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048E11D-E768-4A1A-984D-4D42F9746B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCBF4DB-7078-462F-B2AB-821E6875E53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6411,7 +6411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6498,9 +6498,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8266,10 +8263,10 @@
   <dimension ref="C1:N553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8639,7 +8636,7 @@
       <c r="C12" s="3">
         <v>210001</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E12" s="3">
@@ -8677,7 +8674,7 @@
       <c r="C13" s="3">
         <v>210002</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E13" s="3">
@@ -8715,7 +8712,7 @@
       <c r="C14" s="3">
         <v>210003</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="3" t="s">
         <v>463</v>
       </c>
       <c r="E14" s="3">
@@ -8753,7 +8750,7 @@
       <c r="C15" s="3">
         <v>210004</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="3" t="s">
         <v>464</v>
       </c>
       <c r="E15" s="3">
@@ -8791,7 +8788,7 @@
       <c r="C16" s="3">
         <v>210005</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="3" t="s">
         <v>429</v>
       </c>
       <c r="E16" s="3">
@@ -8829,7 +8826,7 @@
       <c r="C17" s="3">
         <v>210006</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="3" t="s">
         <v>430</v>
       </c>
       <c r="E17" s="3">
@@ -8867,7 +8864,7 @@
       <c r="C18" s="3">
         <v>210007</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="3" t="s">
         <v>431</v>
       </c>
       <c r="E18" s="3">
@@ -8905,7 +8902,7 @@
       <c r="C19" s="3">
         <v>210008</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E19" s="3">
@@ -8943,7 +8940,7 @@
       <c r="C20" s="3">
         <v>210009</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="3" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="3">
@@ -8981,7 +8978,7 @@
       <c r="C21" s="3">
         <v>210010</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="3" t="s">
         <v>434</v>
       </c>
       <c r="E21" s="3">
@@ -9019,7 +9016,7 @@
       <c r="C22" s="3">
         <v>210011</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="3" t="s">
         <v>435</v>
       </c>
       <c r="E22" s="3">
@@ -9057,7 +9054,7 @@
       <c r="C23" s="3">
         <v>210012</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="3" t="s">
         <v>436</v>
       </c>
       <c r="E23" s="3">
@@ -9095,7 +9092,7 @@
       <c r="C24" s="3">
         <v>210013</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="3" t="s">
         <v>437</v>
       </c>
       <c r="E24" s="3">
@@ -9133,7 +9130,7 @@
       <c r="C25" s="3">
         <v>210014</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="3" t="s">
         <v>438</v>
       </c>
       <c r="E25" s="3">
@@ -9171,7 +9168,7 @@
       <c r="C26" s="3">
         <v>210015</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="3" t="s">
         <v>439</v>
       </c>
       <c r="E26" s="3">
@@ -9209,7 +9206,7 @@
       <c r="C27" s="3">
         <v>210016</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="3" t="s">
         <v>440</v>
       </c>
       <c r="E27" s="3">
@@ -9247,7 +9244,7 @@
       <c r="C28" s="3">
         <v>210017</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="3" t="s">
         <v>441</v>
       </c>
       <c r="E28" s="3">
@@ -9285,7 +9282,7 @@
       <c r="C29" s="3">
         <v>210018</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="3" t="s">
         <v>442</v>
       </c>
       <c r="E29" s="3">
@@ -9323,7 +9320,7 @@
       <c r="C30" s="3">
         <v>210019</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="3" t="s">
         <v>443</v>
       </c>
       <c r="E30" s="3">
@@ -9361,7 +9358,7 @@
       <c r="C31" s="3">
         <v>210020</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="3" t="s">
         <v>444</v>
       </c>
       <c r="E31" s="3">
@@ -9399,7 +9396,7 @@
       <c r="C32" s="3">
         <v>210021</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="3" t="s">
         <v>466</v>
       </c>
       <c r="E32" s="3">
@@ -10738,7 +10735,7 @@
       <c r="F67" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="36" t="s">
+      <c r="G67" s="35" t="s">
         <v>360</v>
       </c>
       <c r="H67" s="5">

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFA9DE-34AD-4632-84D2-548BDB9735B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF6A315-0374-4909-A927-4E0C7D3FCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8464,10 +8464,10 @@
   <dimension ref="C1:N532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3A207-5E09-460C-A1DC-3AD3D1BDD97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB172A-F528-4890-817A-83CB5444CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuffProto" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="527">
   <si>
     <t>#</t>
   </si>
@@ -1912,9 +1912,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Eff_Skill_BaoZha_27</t>
-  </si>
-  <si>
     <t>Eff_Skill_BaoZha_29</t>
   </si>
   <si>
@@ -1935,6 +1932,18 @@
   </si>
   <si>
     <t>Eff_Skill_BaoZha_38</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴降临</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_27</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_29</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -8435,7 +8444,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14059,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
@@ -14097,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
@@ -14164,7 +14173,7 @@
         <v>66010110</v>
       </c>
       <c r="D153" s="36" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
@@ -14173,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -14211,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
@@ -14249,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H155" s="39">
         <v>0</v>
@@ -14287,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
@@ -14325,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -14363,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
@@ -14439,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB172A-F528-4890-817A-83CB5444CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71484E18-2A66-4956-92AC-719034E67198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,19 +687,10 @@
     <t>跳跃击</t>
   </si>
   <si>
-    <t>Skill_Bomb_2</t>
-  </si>
-  <si>
     <t>旋风击</t>
   </si>
   <si>
-    <t>Skill_Rotate_1</t>
-  </si>
-  <si>
     <t>魔法闪击</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_1</t>
   </si>
   <si>
     <t>元素火雨</t>
@@ -1944,6 +1935,18 @@
   </si>
   <si>
     <t>Eff_Skill_BaoZha_29</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_39</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Rotate_3</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -8441,10 +8444,10 @@
   <dimension ref="C1:N547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10192,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>111</v>
+        <v>524</v>
       </c>
       <c r="H48" s="3">
         <v>0.5</v>
@@ -10221,7 +10224,7 @@
         <v>11100210</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -10230,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="H49" s="3">
         <v>0.1</v>
@@ -10259,7 +10262,7 @@
         <v>11100310</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -10268,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>115</v>
+        <v>525</v>
       </c>
       <c r="H50" s="3">
         <v>0.25</v>
@@ -10297,7 +10300,7 @@
         <v>11200010</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -10306,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H51" s="3">
         <v>0.5</v>
@@ -10335,7 +10338,7 @@
         <v>11200110</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H52" s="3">
         <v>0.2</v>
@@ -10373,7 +10376,7 @@
         <v>11200210</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -10382,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -10411,7 +10414,7 @@
         <v>11200310</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -10420,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -10449,7 +10452,7 @@
         <v>12000010</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -10458,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H55" s="5">
         <v>0.4</v>
@@ -10487,7 +10490,7 @@
         <v>12000020</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
@@ -10496,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H56" s="5">
         <v>0.7</v>
@@ -10525,7 +10528,7 @@
         <v>12000030</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -10534,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H57" s="5">
         <v>0.5</v>
@@ -10563,7 +10566,7 @@
         <v>12001010</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -10572,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -10601,7 +10604,7 @@
         <v>41100001</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E59" s="5">
         <v>4</v>
@@ -10610,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -10639,7 +10642,7 @@
         <v>21010100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -10648,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H60" s="3">
         <v>0.1</v>
@@ -10677,7 +10680,7 @@
         <v>21010200</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -10686,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H61" s="3">
         <v>0.2</v>
@@ -10715,7 +10718,7 @@
         <v>21010300</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -10724,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -10753,7 +10756,7 @@
         <v>21020100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -10762,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -10791,7 +10794,7 @@
         <v>21020200</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -10800,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -10829,7 +10832,7 @@
         <v>21020300</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -10838,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H65" s="3">
         <v>0.25</v>
@@ -10867,7 +10870,7 @@
         <v>21030100</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -10876,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -10905,7 +10908,7 @@
         <v>21030200</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -10914,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -10943,7 +10946,7 @@
         <v>21030300</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -10952,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -10981,7 +10984,7 @@
         <v>21030301</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -11019,7 +11022,7 @@
         <v>22000100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -11028,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -11057,7 +11060,7 @@
         <v>22000200</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -11066,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -11095,7 +11098,7 @@
         <v>22000300</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -11104,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -11133,7 +11136,7 @@
         <v>22001100</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -11142,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -11171,7 +11174,7 @@
         <v>22001500</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -11180,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -11209,7 +11212,7 @@
         <v>22001600</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -11218,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -11247,7 +11250,7 @@
         <v>22001700</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -11256,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -11285,7 +11288,7 @@
         <v>22001710</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -11294,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -11323,7 +11326,7 @@
         <v>23030200</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
@@ -11332,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H78" s="3">
         <v>0.2</v>
@@ -11361,7 +11364,7 @@
         <v>23030300</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
@@ -11370,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H79" s="5">
         <v>0.2</v>
@@ -11399,7 +11402,7 @@
         <v>23030400</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -11408,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H80" s="6">
         <v>0</v>
@@ -11437,7 +11440,7 @@
         <v>23030500</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -11446,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H81" s="6">
         <v>0</v>
@@ -11475,16 +11478,16 @@
         <v>23030600</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E82" s="5">
         <v>1</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H82" s="5">
         <v>0</v>
@@ -11513,7 +11516,7 @@
         <v>23030700</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -11522,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H83" s="5">
         <v>0</v>
@@ -11551,7 +11554,7 @@
         <v>23030800</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
@@ -11560,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H84" s="5">
         <v>0</v>
@@ -11589,7 +11592,7 @@
         <v>23030900</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -11598,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H85" s="5">
         <v>0</v>
@@ -11627,7 +11630,7 @@
         <v>23031000</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -11636,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H86" s="5">
         <v>0</v>
@@ -11665,7 +11668,7 @@
         <v>23031100</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -11674,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H87" s="6">
         <v>0</v>
@@ -11703,7 +11706,7 @@
         <v>23031200</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E88" s="5">
         <v>2</v>
@@ -11712,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H88" s="5">
         <v>0.1</v>
@@ -11741,7 +11744,7 @@
         <v>23031300</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
@@ -11750,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H89" s="5">
         <v>2</v>
@@ -11779,7 +11782,7 @@
         <v>23031400</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -11788,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H90" s="5">
         <v>0</v>
@@ -11817,7 +11820,7 @@
         <v>23031500</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -11826,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -11855,7 +11858,7 @@
         <v>23031600</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -11864,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -11893,7 +11896,7 @@
         <v>23031700</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E93" s="3">
         <v>1</v>
@@ -11902,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H93" s="3">
         <v>0.2</v>
@@ -11931,16 +11934,16 @@
         <v>23031800</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -11969,7 +11972,7 @@
         <v>23031900</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E95" s="3">
         <v>1</v>
@@ -11978,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -12007,7 +12010,7 @@
         <v>23032000</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -12016,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -12045,7 +12048,7 @@
         <v>23032010</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E97" s="3">
         <v>1</v>
@@ -12054,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H97" s="3">
         <v>0.1</v>
@@ -12083,7 +12086,7 @@
         <v>23032100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -12092,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -12121,16 +12124,16 @@
         <v>23032200</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H99" s="5">
         <v>0</v>
@@ -12159,7 +12162,7 @@
         <v>23032300</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
@@ -12168,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H100" s="3">
         <v>0.2</v>
@@ -12197,7 +12200,7 @@
         <v>23032400</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -12206,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H101" s="5">
         <v>0.1</v>
@@ -12235,7 +12238,7 @@
         <v>23032500</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E102" s="5">
         <v>1</v>
@@ -12244,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H102" s="5">
         <v>0.5</v>
@@ -12273,7 +12276,7 @@
         <v>23032600</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -12282,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H103" s="5">
         <v>0</v>
@@ -12311,7 +12314,7 @@
         <v>23032700</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -12320,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H104" s="5">
         <v>0.25</v>
@@ -12349,7 +12352,7 @@
         <v>23032800</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -12358,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H105" s="5">
         <v>0.5</v>
@@ -12387,7 +12390,7 @@
         <v>23032900</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -12396,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H106" s="5">
         <v>0</v>
@@ -12425,7 +12428,7 @@
         <v>23033000</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -12434,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>
@@ -12463,7 +12466,7 @@
         <v>23033100</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E108" s="5">
         <v>1</v>
@@ -12472,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H108" s="5">
         <v>0.25</v>
@@ -12501,7 +12504,7 @@
         <v>23033200</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E109" s="5">
         <v>1</v>
@@ -12510,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H109" s="5">
         <v>0</v>
@@ -12539,7 +12542,7 @@
         <v>23033300</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
@@ -12548,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H110" s="5">
         <v>0</v>
@@ -12577,7 +12580,7 @@
         <v>23033400</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -12586,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H111" s="5">
         <v>0</v>
@@ -12615,7 +12618,7 @@
         <v>23040100</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E112" s="5">
         <v>1</v>
@@ -12624,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -12653,7 +12656,7 @@
         <v>23040200</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -12662,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H113" s="5">
         <v>0.25</v>
@@ -12691,7 +12694,7 @@
         <v>23040300</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E114" s="5">
         <v>1</v>
@@ -12700,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
@@ -12729,7 +12732,7 @@
         <v>23040400</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -12738,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H115" s="6">
         <v>0</v>
@@ -12767,7 +12770,7 @@
         <v>23040500</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E116" s="5">
         <v>1</v>
@@ -12776,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H116" s="5">
         <v>0</v>
@@ -12805,7 +12808,7 @@
         <v>23040600</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -12814,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -12843,7 +12846,7 @@
         <v>23040700</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E118" s="5">
         <v>1</v>
@@ -12852,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H118" s="5">
         <v>0</v>
@@ -12881,7 +12884,7 @@
         <v>23040800</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -12890,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H119" s="5">
         <v>0</v>
@@ -12919,7 +12922,7 @@
         <v>23040810</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E120" s="5">
         <v>1</v>
@@ -12928,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H120" s="5">
         <v>0</v>
@@ -12957,7 +12960,7 @@
         <v>29010100</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
@@ -12966,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -12995,7 +12998,7 @@
         <v>29010200</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -13004,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -13033,7 +13036,7 @@
         <v>29010300</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
@@ -13042,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -13071,7 +13074,7 @@
         <v>29010400</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
@@ -13080,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -13109,7 +13112,7 @@
         <v>29010500</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E125" s="3">
         <v>1</v>
@@ -13118,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H125" s="3">
         <v>0.1</v>
@@ -13147,7 +13150,7 @@
         <v>29010501</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -13156,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -13185,7 +13188,7 @@
         <v>29010600</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
@@ -13194,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -13223,7 +13226,7 @@
         <v>29020100</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -13232,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H128" s="3">
         <v>0.25</v>
@@ -13261,7 +13264,7 @@
         <v>29020200</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
@@ -13270,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H129" s="3">
         <v>0.25</v>
@@ -13299,7 +13302,7 @@
         <v>29020300</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -13308,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -13337,7 +13340,7 @@
         <v>29020301</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -13346,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -13375,7 +13378,7 @@
         <v>29020310</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -13384,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -13413,7 +13416,7 @@
         <v>29020400</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
@@ -13422,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -13451,7 +13454,7 @@
         <v>29020500</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -13460,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -13489,7 +13492,7 @@
         <v>29020600</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
@@ -13498,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -13527,7 +13530,7 @@
         <v>29030100</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -13536,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -13565,7 +13568,7 @@
         <v>29030200</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
@@ -13574,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -13603,7 +13606,7 @@
         <v>29030300</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -13612,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -13641,7 +13644,7 @@
         <v>29030400</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E139" s="3">
         <v>1</v>
@@ -13650,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -13679,7 +13682,7 @@
         <v>29030500</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E140" s="3">
         <v>1</v>
@@ -13688,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -13717,7 +13720,7 @@
         <v>29030600</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E141" s="3">
         <v>1</v>
@@ -13726,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -13764,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -13793,7 +13796,7 @@
         <v>66010010</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
@@ -13802,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -13831,7 +13834,7 @@
         <v>66010020</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -13840,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -13869,7 +13872,7 @@
         <v>66010030</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
@@ -13907,7 +13910,7 @@
         <v>66010040</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
@@ -13945,7 +13948,7 @@
         <v>66010050</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E147" s="3">
         <v>1</v>
@@ -13954,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="37" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -13983,7 +13986,7 @@
         <v>66010060</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
@@ -14021,7 +14024,7 @@
         <v>66010070</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E149" s="3">
         <v>1</v>
@@ -14030,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
@@ -14059,7 +14062,7 @@
         <v>66010080</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
@@ -14068,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
@@ -14097,7 +14100,7 @@
         <v>66010090</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E151" s="3">
         <v>1</v>
@@ -14106,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
@@ -14135,7 +14138,7 @@
         <v>66010100</v>
       </c>
       <c r="D152" s="36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -14144,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
@@ -14173,7 +14176,7 @@
         <v>66010110</v>
       </c>
       <c r="D153" s="36" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
@@ -14182,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -14211,7 +14214,7 @@
         <v>66010120</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -14220,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
@@ -14249,7 +14252,7 @@
         <v>66010130</v>
       </c>
       <c r="D155" s="39" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E155" s="39">
         <v>1</v>
@@ -14258,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H155" s="39">
         <v>0</v>
@@ -14287,7 +14290,7 @@
         <v>66010140</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -14296,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
@@ -14325,7 +14328,7 @@
         <v>66010150</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E157" s="3">
         <v>1</v>
@@ -14334,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -14363,7 +14366,7 @@
         <v>66010160</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E158" s="3">
         <v>1</v>
@@ -14372,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
@@ -14401,7 +14404,7 @@
         <v>66010180</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E159" s="3">
         <v>1</v>
@@ -14410,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
@@ -14439,7 +14442,7 @@
         <v>66010201</v>
       </c>
       <c r="D160" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
@@ -14448,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
@@ -14477,16 +14480,16 @@
         <v>70102001</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H161" s="5">
         <v>2.5</v>
@@ -14509,16 +14512,16 @@
         <v>70103001</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H162" s="5">
         <v>2</v>
@@ -14541,16 +14544,16 @@
         <v>70103003</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H163" s="5">
         <v>2.5</v>
@@ -14573,16 +14576,16 @@
         <v>70104001</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H164" s="5">
         <v>2</v>
@@ -14605,16 +14608,16 @@
         <v>70104003</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H165" s="5">
         <v>3</v>
@@ -14637,16 +14640,16 @@
         <v>70105001</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H166" s="5">
         <v>0.5</v>
@@ -14669,16 +14672,16 @@
         <v>70106001</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E167" s="5">
         <v>1</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H167" s="5">
         <v>0.5</v>
@@ -14701,16 +14704,16 @@
         <v>70106002</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E168" s="5">
         <v>1</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H168" s="5">
         <v>0</v>
@@ -14733,16 +14736,16 @@
         <v>70106003</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E169" s="5">
         <v>1</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H169" s="5">
         <v>2.5</v>
@@ -14765,16 +14768,16 @@
         <v>70106004</v>
       </c>
       <c r="D170" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E170" s="5">
+        <v>1</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="E170" s="5">
-        <v>1</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="H170" s="5">
         <v>2.5</v>
@@ -14797,16 +14800,16 @@
         <v>70106005</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E171" s="5">
         <v>1</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H171" s="5">
         <v>0</v>
@@ -14829,16 +14832,16 @@
         <v>70107001</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E172" s="5">
         <v>1</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H172" s="5">
         <v>2.5</v>
@@ -14867,10 +14870,10 @@
         <v>1</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H173" s="5">
         <v>0.5</v>
@@ -14893,16 +14896,16 @@
         <v>70201003</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E174" s="5">
         <v>1</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H174" s="5">
         <v>3</v>
@@ -14925,16 +14928,16 @@
         <v>70202001</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E175" s="5">
         <v>1</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H175" s="5">
         <v>2.5</v>
@@ -14957,16 +14960,16 @@
         <v>70202002</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E176" s="5">
         <v>1</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H176" s="5">
         <v>2.5</v>
@@ -14989,16 +14992,16 @@
         <v>70202004</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H177" s="5">
         <v>0.5</v>
@@ -15021,16 +15024,16 @@
         <v>70203001</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H178" s="5">
         <v>1.8</v>
@@ -15053,16 +15056,16 @@
         <v>70203003</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E179" s="5">
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H179" s="5">
         <v>3</v>
@@ -15085,16 +15088,16 @@
         <v>70203004</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E180" s="5">
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H180" s="5">
         <v>2.5</v>
@@ -15117,16 +15120,16 @@
         <v>70204001</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H181" s="5">
         <v>2.5</v>
@@ -15149,16 +15152,16 @@
         <v>70204002</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E182" s="5">
         <v>1</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H182" s="5">
         <v>3</v>
@@ -15181,16 +15184,16 @@
         <v>70204003</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H183" s="5">
         <v>3</v>
@@ -15213,16 +15216,16 @@
         <v>70204004</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E184" s="5">
         <v>1</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H184" s="5">
         <v>0</v>
@@ -15245,16 +15248,16 @@
         <v>70205001</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H185" s="5">
         <v>2</v>
@@ -15277,16 +15280,16 @@
         <v>70205002</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E186" s="5">
         <v>1</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H186" s="5">
         <v>2.5</v>
@@ -15309,16 +15312,16 @@
         <v>70205003</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H187" s="5">
         <v>0.5</v>
@@ -15341,16 +15344,16 @@
         <v>70301001</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E188" s="5">
         <v>1</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H188" s="5">
         <v>2.5</v>
@@ -15373,16 +15376,16 @@
         <v>70301003</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H189" s="5">
         <v>2.5</v>
@@ -15405,16 +15408,16 @@
         <v>70302001</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E190" s="5">
         <v>1</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H190" s="5">
         <v>0.5</v>
@@ -15437,16 +15440,16 @@
         <v>70302003</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H191" s="5">
         <v>0</v>
@@ -15469,16 +15472,16 @@
         <v>70302004</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E192" s="5">
         <v>1</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H192" s="5">
         <v>2.5</v>
@@ -15501,16 +15504,16 @@
         <v>70305005</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H193" s="5">
         <v>2.5</v>
@@ -15533,16 +15536,16 @@
         <v>70305007</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E194" s="5">
         <v>1</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H194" s="5">
         <v>2.5</v>
@@ -15571,10 +15574,10 @@
         <v>1</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H195" s="5">
         <v>1</v>
@@ -15603,10 +15606,10 @@
         <v>1</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H196" s="5">
         <v>1</v>
@@ -15629,16 +15632,16 @@
         <v>70402003</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E197" s="5">
         <v>1</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H197" s="5">
         <v>2</v>
@@ -15667,10 +15670,10 @@
         <v>1</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H198" s="5">
         <v>0.5</v>
@@ -15693,16 +15696,16 @@
         <v>70403003</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H199" s="5">
         <v>2.5</v>
@@ -15725,16 +15728,16 @@
         <v>70403004</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E200" s="5">
         <v>1</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H200" s="5">
         <v>2</v>
@@ -15757,16 +15760,16 @@
         <v>70404001</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E201" s="5">
         <v>1</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H201" s="5">
         <v>1.1000000000000001</v>
@@ -15789,16 +15792,16 @@
         <v>70404002</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E202" s="5">
         <v>1</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H202" s="5">
         <v>2</v>
@@ -15821,16 +15824,16 @@
         <v>70405001</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E203" s="5">
         <v>1</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H203" s="5">
         <v>2</v>
@@ -15853,16 +15856,16 @@
         <v>70405002</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E204" s="5">
         <v>1</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H204" s="5">
         <v>2</v>
@@ -15885,16 +15888,16 @@
         <v>70405003</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E205" s="5">
         <v>1</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H205" s="5">
         <v>2</v>
@@ -15917,16 +15920,16 @@
         <v>70405007</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E206" s="5">
         <v>1</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H206" s="5">
         <v>0.5</v>
@@ -15949,7 +15952,7 @@
         <v>80000001</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E207" s="5">
         <v>1</v>
@@ -15958,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H207" s="17">
         <v>0</v>
@@ -15981,7 +15984,7 @@
         <v>80000002</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E208" s="5">
         <v>1</v>
@@ -15990,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H208" s="17">
         <v>0</v>
@@ -16013,16 +16016,16 @@
         <v>80000003</v>
       </c>
       <c r="D209" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1</v>
+      </c>
+      <c r="F209" s="5">
+        <v>0</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="E209" s="5">
-        <v>1</v>
-      </c>
-      <c r="F209" s="5">
-        <v>0</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="H209" s="17">
         <v>0</v>
@@ -16045,7 +16048,7 @@
         <v>80000004</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E210" s="5">
         <v>1</v>
@@ -16054,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H210" s="17">
         <v>0</v>
@@ -16077,7 +16080,7 @@
         <v>80000005</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -16086,7 +16089,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H211" s="17">
         <v>0</v>
@@ -16109,7 +16112,7 @@
         <v>80000006</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E212" s="5">
         <v>1</v>
@@ -16118,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H212" s="17">
         <v>0</v>
@@ -16141,7 +16144,7 @@
         <v>80000007</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -16150,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H213" s="17">
         <v>0</v>
@@ -16173,16 +16176,16 @@
         <v>80000202</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E214" s="5">
         <v>1</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G214" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H214" s="5">
         <v>0.5</v>
@@ -16205,7 +16208,7 @@
         <v>10000001</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E215" s="6">
         <v>2</v>
@@ -16243,7 +16246,7 @@
         <v>10000002</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E216" s="6">
         <v>2</v>
@@ -16281,7 +16284,7 @@
         <v>10000003</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E217" s="6">
         <v>2</v>
@@ -16319,7 +16322,7 @@
         <v>10000004</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E218" s="6">
         <v>2</v>
@@ -16357,7 +16360,7 @@
         <v>10000005</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E219" s="6">
         <v>2</v>
@@ -16395,7 +16398,7 @@
         <v>10000006</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E220" s="6">
         <v>2</v>
@@ -16433,7 +16436,7 @@
         <v>10000007</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E221" s="6">
         <v>2</v>
@@ -16471,7 +16474,7 @@
         <v>10000008</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E222" s="6">
         <v>2</v>
@@ -16509,7 +16512,7 @@
         <v>10000009</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E223" s="6">
         <v>2</v>
@@ -16547,7 +16550,7 @@
         <v>10000010</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E224" s="6">
         <v>2</v>
@@ -16585,7 +16588,7 @@
         <v>10000011</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E225" s="6">
         <v>2</v>
@@ -16623,7 +16626,7 @@
         <v>10000012</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E226" s="6">
         <v>2</v>
@@ -16661,7 +16664,7 @@
         <v>10000013</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E227" s="6">
         <v>2</v>
@@ -16699,7 +16702,7 @@
         <v>10000014</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E228" s="6">
         <v>2</v>
@@ -16737,7 +16740,7 @@
         <v>10000015</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E229" s="6">
         <v>2</v>
@@ -16775,7 +16778,7 @@
         <v>10001001</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E230" s="6">
         <v>2</v>
@@ -16813,7 +16816,7 @@
         <v>10001002</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E231" s="6">
         <v>2</v>
@@ -16851,7 +16854,7 @@
         <v>10001003</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E232" s="6">
         <v>2</v>
@@ -16889,7 +16892,7 @@
         <v>10001004</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E233" s="7">
         <v>2</v>
@@ -16927,7 +16930,7 @@
         <v>10001005</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E234" s="6">
         <v>2</v>
@@ -16965,7 +16968,7 @@
         <v>10001006</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E235" s="6">
         <v>2</v>
@@ -17003,7 +17006,7 @@
         <v>10001007</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E236" s="6">
         <v>2</v>
@@ -17041,7 +17044,7 @@
         <v>10001008</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E237" s="6">
         <v>2</v>
@@ -17079,7 +17082,7 @@
         <v>10001009</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E238" s="6">
         <v>2</v>
@@ -17117,7 +17120,7 @@
         <v>10001010</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E239" s="6">
         <v>2</v>
@@ -17155,7 +17158,7 @@
         <v>10001011</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E240" s="6">
         <v>2</v>
@@ -17193,7 +17196,7 @@
         <v>10002001</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E241" s="6">
         <v>2</v>
@@ -17231,7 +17234,7 @@
         <v>10002002</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E242" s="6">
         <v>2</v>
@@ -17269,7 +17272,7 @@
         <v>10002003</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E243" s="6">
         <v>2</v>
@@ -17307,7 +17310,7 @@
         <v>10002004</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E244" s="6">
         <v>2</v>
@@ -17345,7 +17348,7 @@
         <v>10002005</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E245" s="6">
         <v>2</v>
@@ -17383,7 +17386,7 @@
         <v>10003001</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E246" s="6">
         <v>2</v>
@@ -17421,7 +17424,7 @@
         <v>10003002</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E247" s="6">
         <v>2</v>
@@ -17459,7 +17462,7 @@
         <v>10004001</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E248" s="6">
         <v>2</v>
@@ -17497,7 +17500,7 @@
         <v>10004002</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E249" s="6">
         <v>2</v>
@@ -17535,7 +17538,7 @@
         <v>10004003</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E250" s="6">
         <v>2</v>
@@ -17573,7 +17576,7 @@
         <v>10004004</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E251" s="6">
         <v>2</v>
@@ -17611,7 +17614,7 @@
         <v>10004005</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E252" s="6">
         <v>2</v>
@@ -17649,7 +17652,7 @@
         <v>10005001</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E253" s="6">
         <v>2</v>
@@ -17687,7 +17690,7 @@
         <v>10006001</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E254" s="6">
         <v>2</v>
@@ -17725,7 +17728,7 @@
         <v>10007001</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E255" s="6">
         <v>2</v>
@@ -17763,7 +17766,7 @@
         <v>10007002</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E256" s="6">
         <v>2</v>
@@ -17801,7 +17804,7 @@
         <v>10007003</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E257" s="6">
         <v>2</v>
@@ -17839,7 +17842,7 @@
         <v>10008001</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E258" s="6">
         <v>2</v>
@@ -17877,13 +17880,13 @@
         <v>11000001</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E259" s="6">
         <v>1</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G259" s="6">
         <v>10000001</v>
@@ -17915,13 +17918,13 @@
         <v>11000002</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G260" s="6">
         <v>10000001</v>
@@ -17953,13 +17956,13 @@
         <v>11000003</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G261" s="6">
         <v>10000001</v>
@@ -17991,13 +17994,13 @@
         <v>11000004</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G262" s="6">
         <v>10000001</v>
@@ -18029,13 +18032,13 @@
         <v>11000005</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G263" s="6">
         <v>10000001</v>
@@ -18067,13 +18070,13 @@
         <v>11000006</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G264" s="6">
         <v>10000001</v>
@@ -18105,13 +18108,13 @@
         <v>11000007</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G265" s="6">
         <v>10000001</v>
@@ -19508,7 +19511,7 @@
         <v>20001010</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E305" s="6">
         <v>1</v>
@@ -19546,7 +19549,7 @@
         <v>20001020</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E306" s="6">
         <v>1</v>
@@ -19584,7 +19587,7 @@
         <v>20001030</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E307" s="6">
         <v>1</v>
@@ -19622,7 +19625,7 @@
         <v>20001040</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E308" s="6">
         <v>1</v>
@@ -19660,7 +19663,7 @@
         <v>20100010</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E309" s="6">
         <v>1</v>
@@ -19698,7 +19701,7 @@
         <v>20100020</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E310" s="6">
         <v>1</v>
@@ -19736,7 +19739,7 @@
         <v>20100030</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E311" s="6">
         <v>1</v>
@@ -19774,7 +19777,7 @@
         <v>20100110</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E312" s="6">
         <v>1</v>
@@ -19812,7 +19815,7 @@
         <v>20100120</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E313" s="6">
         <v>1</v>
@@ -19850,7 +19853,7 @@
         <v>20100130</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
@@ -19888,7 +19891,7 @@
         <v>20100210</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -19926,7 +19929,7 @@
         <v>20100310</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -19964,7 +19967,7 @@
         <v>20100410</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -20002,7 +20005,7 @@
         <v>20100420</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -20078,7 +20081,7 @@
         <v>21000020</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -20154,7 +20157,7 @@
         <v>21000120</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -20192,7 +20195,7 @@
         <v>21000130</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E323" s="6">
         <v>1</v>
@@ -20230,7 +20233,7 @@
         <v>21010010</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E324" s="6">
         <v>1</v>
@@ -20268,7 +20271,7 @@
         <v>21010020</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E325" s="6">
         <v>1</v>
@@ -20306,7 +20309,7 @@
         <v>21010030</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E326" s="6">
         <v>1</v>
@@ -20344,7 +20347,7 @@
         <v>21010040</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E327" s="6">
         <v>1</v>
@@ -20382,7 +20385,7 @@
         <v>21010050</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E328" s="6">
         <v>1</v>
@@ -20420,7 +20423,7 @@
         <v>21020010</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E329" s="6">
         <v>1</v>
@@ -20458,7 +20461,7 @@
         <v>21020020</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E330" s="6">
         <v>1</v>
@@ -20496,7 +20499,7 @@
         <v>21020030</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E331" s="6">
         <v>1</v>
@@ -20534,7 +20537,7 @@
         <v>21020040</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E332" s="6">
         <v>1</v>
@@ -20572,7 +20575,7 @@
         <v>21020050</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E333" s="6">
         <v>1</v>
@@ -20610,7 +20613,7 @@
         <v>21020101</v>
       </c>
       <c r="D334" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E334" s="6">
         <v>1</v>
@@ -20648,7 +20651,7 @@
         <v>21030010</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E335" s="6">
         <v>1</v>
@@ -20686,7 +20689,7 @@
         <v>21030020</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E336" s="6">
         <v>1</v>
@@ -20724,7 +20727,7 @@
         <v>21030030</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E337" s="6">
         <v>1</v>
@@ -20762,7 +20765,7 @@
         <v>21030040</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E338" s="6">
         <v>1</v>
@@ -20800,7 +20803,7 @@
         <v>21100010</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E339" s="6">
         <v>1</v>
@@ -20838,7 +20841,7 @@
         <v>21100020</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E340" s="6">
         <v>1</v>
@@ -20876,7 +20879,7 @@
         <v>21100030</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E341" s="6">
         <v>1</v>
@@ -20914,7 +20917,7 @@
         <v>21100040</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E342" s="6">
         <v>1</v>
@@ -20952,7 +20955,7 @@
         <v>21100050</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E343" s="6">
         <v>1</v>
@@ -20990,7 +20993,7 @@
         <v>21100060</v>
       </c>
       <c r="D344" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E344" s="6">
         <v>1</v>
@@ -21028,7 +21031,7 @@
         <v>21101010</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E345" s="6">
         <v>1</v>
@@ -21066,7 +21069,7 @@
         <v>21101011</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E346" s="6">
         <v>1</v>
@@ -21104,7 +21107,7 @@
         <v>21101020</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E347" s="6">
         <v>1</v>
@@ -21142,7 +21145,7 @@
         <v>21101021</v>
       </c>
       <c r="D348" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E348" s="6">
         <v>1</v>
@@ -21180,7 +21183,7 @@
         <v>21101022</v>
       </c>
       <c r="D349" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E349" s="6">
         <v>1</v>
@@ -21218,7 +21221,7 @@
         <v>21101030</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E350" s="6">
         <v>1</v>
@@ -21256,7 +21259,7 @@
         <v>21101040</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E351" s="6">
         <v>1</v>
@@ -21294,7 +21297,7 @@
         <v>21101050</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E352" s="6">
         <v>1</v>
@@ -21332,7 +21335,7 @@
         <v>21101051</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E353" s="6">
         <v>1</v>
@@ -21370,7 +21373,7 @@
         <v>21102010</v>
       </c>
       <c r="D354" s="22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E354" s="6">
         <v>2</v>
@@ -21408,7 +21411,7 @@
         <v>21102020</v>
       </c>
       <c r="D355" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E355" s="6">
         <v>1</v>
@@ -21446,7 +21449,7 @@
         <v>21102030</v>
       </c>
       <c r="D356" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E356" s="6">
         <v>1</v>
@@ -21484,7 +21487,7 @@
         <v>21102031</v>
       </c>
       <c r="D357" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E357" s="6">
         <v>1</v>
@@ -21522,7 +21525,7 @@
         <v>21102040</v>
       </c>
       <c r="D358" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E358" s="6">
         <v>1</v>
@@ -21560,7 +21563,7 @@
         <v>21103010</v>
       </c>
       <c r="D359" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E359" s="6">
         <v>1</v>
@@ -21598,7 +21601,7 @@
         <v>21103020</v>
       </c>
       <c r="D360" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E360" s="6">
         <v>1</v>
@@ -21636,7 +21639,7 @@
         <v>21103030</v>
       </c>
       <c r="D361" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E361" s="6">
         <v>1</v>
@@ -21674,7 +21677,7 @@
         <v>21103040</v>
       </c>
       <c r="D362" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E362" s="6">
         <v>1</v>
@@ -21712,7 +21715,7 @@
         <v>21200010</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E363" s="6">
         <v>1</v>
@@ -21750,7 +21753,7 @@
         <v>21200030</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E364" s="7">
         <v>1</v>
@@ -21788,7 +21791,7 @@
         <v>21200031</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E365" s="7">
         <v>2</v>
@@ -21826,7 +21829,7 @@
         <v>21200110</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E366" s="6">
         <v>1</v>
@@ -21864,7 +21867,7 @@
         <v>21200120</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E367" s="6">
         <v>2</v>
@@ -21902,7 +21905,7 @@
         <v>21200130</v>
       </c>
       <c r="D368" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E368" s="6">
         <v>1</v>
@@ -21940,7 +21943,7 @@
         <v>21201010</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E369" s="6">
         <v>1</v>
@@ -21978,7 +21981,7 @@
         <v>21201020</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E370" s="6">
         <v>1</v>
@@ -22016,7 +22019,7 @@
         <v>21201030</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E371" s="6">
         <v>1</v>
@@ -22054,7 +22057,7 @@
         <v>21201040</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E372" s="6">
         <v>1</v>
@@ -22092,7 +22095,7 @@
         <v>21201050</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E373" s="6">
         <v>1</v>
@@ -22130,7 +22133,7 @@
         <v>21201090</v>
       </c>
       <c r="D374" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E374" s="6">
         <v>1</v>
@@ -22168,7 +22171,7 @@
         <v>21202010</v>
       </c>
       <c r="D375" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E375" s="6">
         <v>1</v>
@@ -22206,7 +22209,7 @@
         <v>21202020</v>
       </c>
       <c r="D376" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E376" s="6">
         <v>1</v>
@@ -22244,7 +22247,7 @@
         <v>21202030</v>
       </c>
       <c r="D377" s="22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E377" s="6">
         <v>1</v>
@@ -22282,7 +22285,7 @@
         <v>21202031</v>
       </c>
       <c r="D378" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E378" s="6">
         <v>1</v>
@@ -22320,7 +22323,7 @@
         <v>21202040</v>
       </c>
       <c r="D379" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E379" s="6">
         <v>1</v>
@@ -22358,7 +22361,7 @@
         <v>21202090</v>
       </c>
       <c r="D380" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E380" s="6">
         <v>1</v>
@@ -22396,7 +22399,7 @@
         <v>21203010</v>
       </c>
       <c r="D381" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E381" s="6">
         <v>1</v>
@@ -22434,7 +22437,7 @@
         <v>21203020</v>
       </c>
       <c r="D382" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E382" s="6">
         <v>2</v>
@@ -22472,7 +22475,7 @@
         <v>21203021</v>
       </c>
       <c r="D383" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E383" s="6">
         <v>1</v>
@@ -22510,7 +22513,7 @@
         <v>21203030</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E384" s="6">
         <v>1</v>
@@ -22548,7 +22551,7 @@
         <v>21203090</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E385" s="6">
         <v>1</v>
@@ -22586,7 +22589,7 @@
         <v>22000010</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E386" s="6">
         <v>1</v>
@@ -22624,7 +22627,7 @@
         <v>22000011</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E387" s="6">
         <v>1</v>
@@ -22662,7 +22665,7 @@
         <v>22000020</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E388" s="6">
         <v>1</v>
@@ -22852,7 +22855,7 @@
         <v>22000040</v>
       </c>
       <c r="D393" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E393" s="6">
         <v>1</v>
@@ -22890,7 +22893,7 @@
         <v>22001001</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E394" s="7">
         <v>1</v>
@@ -22928,7 +22931,7 @@
         <v>22001002</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E395" s="7">
         <v>1</v>
@@ -22966,7 +22969,7 @@
         <v>22001003</v>
       </c>
       <c r="D396" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E396" s="7">
         <v>1</v>
@@ -23004,7 +23007,7 @@
         <v>22001004</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E397" s="7">
         <v>1</v>
@@ -23042,7 +23045,7 @@
         <v>22001005</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E398" s="7">
         <v>1</v>
@@ -23080,7 +23083,7 @@
         <v>22001006</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E399" s="7">
         <v>1</v>
@@ -23118,7 +23121,7 @@
         <v>23000010</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E400" s="6">
         <v>1</v>
@@ -23156,7 +23159,7 @@
         <v>23000020</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E401" s="6">
         <v>1</v>
@@ -23194,7 +23197,7 @@
         <v>23000030</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E402" s="6">
         <v>1</v>
@@ -23232,7 +23235,7 @@
         <v>23000040</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E403" s="6">
         <v>1</v>
@@ -23270,7 +23273,7 @@
         <v>23000050</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E404" s="6">
         <v>1</v>
@@ -23308,7 +23311,7 @@
         <v>23000060</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E405" s="6">
         <v>1</v>
@@ -23346,7 +23349,7 @@
         <v>23000070</v>
       </c>
       <c r="D406" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E406" s="10">
         <v>1</v>
@@ -23384,7 +23387,7 @@
         <v>23000080</v>
       </c>
       <c r="D407" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E407" s="6">
         <v>1</v>
@@ -23422,7 +23425,7 @@
         <v>23000101</v>
       </c>
       <c r="D408" s="24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E408" s="11">
         <v>1</v>
@@ -23460,7 +23463,7 @@
         <v>23000102</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E409" s="11">
         <v>1</v>
@@ -23498,7 +23501,7 @@
         <v>23000103</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E410" s="11">
         <v>1</v>
@@ -23536,7 +23539,7 @@
         <v>23000104</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E411" s="11">
         <v>1</v>
@@ -23574,7 +23577,7 @@
         <v>23000105</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E412" s="11">
         <v>1</v>
@@ -23612,7 +23615,7 @@
         <v>23000106</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E413" s="11">
         <v>1</v>
@@ -23650,7 +23653,7 @@
         <v>23000201</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E414" s="7">
         <v>1</v>
@@ -23688,7 +23691,7 @@
         <v>23000202</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E415" s="7">
         <v>1</v>
@@ -23726,7 +23729,7 @@
         <v>23000211</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E416" s="7">
         <v>1</v>
@@ -23764,7 +23767,7 @@
         <v>23000212</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E417" s="7">
         <v>1</v>
@@ -23802,7 +23805,7 @@
         <v>23000221</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E418" s="7">
         <v>1</v>
@@ -23840,7 +23843,7 @@
         <v>23000222</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E419" s="7">
         <v>1</v>
@@ -23878,7 +23881,7 @@
         <v>23000223</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E420" s="7">
         <v>1</v>
@@ -23916,7 +23919,7 @@
         <v>24000001</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -23954,7 +23957,7 @@
         <v>30000001</v>
       </c>
       <c r="D422" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -24030,7 +24033,7 @@
         <v>30000004</v>
       </c>
       <c r="D424" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -24068,7 +24071,7 @@
         <v>30000003</v>
       </c>
       <c r="D425" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -24106,7 +24109,7 @@
         <v>40000001</v>
       </c>
       <c r="D426" s="27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -24220,7 +24223,7 @@
         <v>40000004</v>
       </c>
       <c r="D429" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E429" s="6">
         <v>1</v>
@@ -24258,7 +24261,7 @@
         <v>40000005</v>
       </c>
       <c r="D430" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E430" s="6">
         <v>1</v>
@@ -24296,7 +24299,7 @@
         <v>40000006</v>
       </c>
       <c r="D431" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E431" s="6">
         <v>1</v>
@@ -24334,7 +24337,7 @@
         <v>40000007</v>
       </c>
       <c r="D432" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E432" s="6">
         <v>1</v>
@@ -24372,7 +24375,7 @@
         <v>40000008</v>
       </c>
       <c r="D433" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E433" s="6">
         <v>1</v>
@@ -24410,7 +24413,7 @@
         <v>50000001</v>
       </c>
       <c r="D434" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E434" s="6">
         <v>1</v>
@@ -24448,7 +24451,7 @@
         <v>60000001</v>
       </c>
       <c r="D435" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E435" s="6">
         <v>1</v>
@@ -24524,7 +24527,7 @@
         <v>60000003</v>
       </c>
       <c r="D437" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E437" s="6">
         <v>1</v>
@@ -24562,7 +24565,7 @@
         <v>60000004</v>
       </c>
       <c r="D438" s="29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E438" s="6">
         <v>1</v>
@@ -24638,7 +24641,7 @@
         <v>62001302</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E440" s="6">
         <v>1</v>
@@ -24676,7 +24679,7 @@
         <v>62001202</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E441" s="6">
         <v>1</v>
@@ -24714,7 +24717,7 @@
         <v>62001203</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E442" s="6">
         <v>1</v>
@@ -24752,7 +24755,7 @@
         <v>62001204</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E443" s="11">
         <v>1</v>
@@ -24790,7 +24793,7 @@
         <v>62001205</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E444" s="11">
         <v>1</v>
@@ -24828,7 +24831,7 @@
         <v>62001401</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E445" s="7">
         <v>1</v>
@@ -24866,7 +24869,7 @@
         <v>62001402</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E446" s="7">
         <v>1</v>
@@ -24904,7 +24907,7 @@
         <v>62001403</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E447" s="11">
         <v>1</v>
@@ -24942,7 +24945,7 @@
         <v>62001501</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E448" s="7">
         <v>1</v>
@@ -24980,7 +24983,7 @@
         <v>62001502</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E449" s="7">
         <v>1</v>
@@ -25018,7 +25021,7 @@
         <v>62001503</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E450" s="7">
         <v>1</v>
@@ -25056,7 +25059,7 @@
         <v>62001601</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E451" s="11">
         <v>1</v>
@@ -25094,7 +25097,7 @@
         <v>62001602</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E452" s="11">
         <v>1</v>
@@ -25132,7 +25135,7 @@
         <v>62001603</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E453" s="11">
         <v>1</v>
@@ -25170,7 +25173,7 @@
         <v>62005101</v>
       </c>
       <c r="D454" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E454" s="7">
         <v>1</v>
@@ -25208,7 +25211,7 @@
         <v>62005102</v>
       </c>
       <c r="D455" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E455" s="7">
         <v>1</v>
@@ -25246,7 +25249,7 @@
         <v>62005103</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E456" s="7">
         <v>1</v>
@@ -25322,7 +25325,7 @@
         <v>62006101</v>
       </c>
       <c r="D458" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E458" s="13">
         <v>1</v>
@@ -25360,7 +25363,7 @@
         <v>62006102</v>
       </c>
       <c r="D459" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E459" s="13">
         <v>1</v>
@@ -25398,7 +25401,7 @@
         <v>62006103</v>
       </c>
       <c r="D460" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E460" s="13">
         <v>1</v>
@@ -25436,7 +25439,7 @@
         <v>62006104</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E461" s="13">
         <v>1</v>
@@ -25474,7 +25477,7 @@
         <v>62006201</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E462" s="11">
         <v>1</v>
@@ -25512,7 +25515,7 @@
         <v>62006202</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E463" s="11">
         <v>1</v>
@@ -25550,7 +25553,7 @@
         <v>62006203</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E464" s="11">
         <v>1</v>
@@ -25588,7 +25591,7 @@
         <v>62006301</v>
       </c>
       <c r="D465" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E465" s="13">
         <v>1</v>
@@ -25664,7 +25667,7 @@
         <v>62006303</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E467" s="13">
         <v>1</v>
@@ -25702,7 +25705,7 @@
         <v>62006304</v>
       </c>
       <c r="D468" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E468" s="13">
         <v>1</v>
@@ -25740,7 +25743,7 @@
         <v>62009001</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E469" s="11">
         <v>1</v>
@@ -25778,7 +25781,7 @@
         <v>62009002</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E470" s="11">
         <v>1</v>
@@ -25816,7 +25819,7 @@
         <v>62009003</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E471" s="11">
         <v>1</v>
@@ -25854,7 +25857,7 @@
         <v>62002307</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E472" s="6">
         <v>1</v>
@@ -25892,7 +25895,7 @@
         <v>90010301</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E473" s="6">
         <v>1</v>
@@ -25930,7 +25933,7 @@
         <v>90010402</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E474" s="6">
         <v>1</v>
@@ -25968,7 +25971,7 @@
         <v>90010403</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E475" s="6">
         <v>1</v>
@@ -26006,7 +26009,7 @@
         <v>90010502</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E476" s="6">
         <v>1</v>
@@ -26120,7 +26123,7 @@
         <v>91000106</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E479" s="6">
         <v>1</v>
@@ -26158,7 +26161,7 @@
         <v>91000107</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E480" s="6">
         <v>1</v>
@@ -26196,7 +26199,7 @@
         <v>91000108</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E481" s="6">
         <v>1</v>
@@ -26234,7 +26237,7 @@
         <v>91000109</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E482" s="6">
         <v>1</v>
@@ -26310,7 +26313,7 @@
         <v>91000315</v>
       </c>
       <c r="D484" s="34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E484" s="15">
         <v>1</v>
@@ -26348,7 +26351,7 @@
         <v>77001101</v>
       </c>
       <c r="D485" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E485" s="7">
         <v>1</v>
@@ -26386,7 +26389,7 @@
         <v>77001102</v>
       </c>
       <c r="D486" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E486" s="7">
         <v>1</v>
@@ -26424,7 +26427,7 @@
         <v>77001103</v>
       </c>
       <c r="D487" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E487" s="7">
         <v>1</v>
@@ -26538,7 +26541,7 @@
         <v>77001201</v>
       </c>
       <c r="D490" s="15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E490" s="15">
         <v>1</v>
@@ -26576,7 +26579,7 @@
         <v>77001202</v>
       </c>
       <c r="D491" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E491" s="15">
         <v>1</v>
@@ -26614,7 +26617,7 @@
         <v>77001203</v>
       </c>
       <c r="D492" s="15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E492" s="15">
         <v>1</v>
@@ -26652,7 +26655,7 @@
         <v>77001204</v>
       </c>
       <c r="D493" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E493" s="15">
         <v>1</v>
@@ -26690,7 +26693,7 @@
         <v>77001205</v>
       </c>
       <c r="D494" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E494" s="15">
         <v>1</v>
@@ -26728,7 +26731,7 @@
         <v>77001301</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E495" s="11">
         <v>1</v>
@@ -26766,7 +26769,7 @@
         <v>77001302</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E496" s="11">
         <v>1</v>
@@ -26804,7 +26807,7 @@
         <v>77001303</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E497" s="11">
         <v>1</v>
@@ -26842,7 +26845,7 @@
         <v>77001304</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E498" s="11">
         <v>1</v>
@@ -26880,7 +26883,7 @@
         <v>77001305</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E499" s="11">
         <v>1</v>
@@ -26918,7 +26921,7 @@
         <v>77001401</v>
       </c>
       <c r="D500" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E500" s="7">
         <v>1</v>
@@ -26956,7 +26959,7 @@
         <v>77001402</v>
       </c>
       <c r="D501" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E501" s="7">
         <v>1</v>
@@ -26994,7 +26997,7 @@
         <v>77001403</v>
       </c>
       <c r="D502" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E502" s="7">
         <v>1</v>
@@ -27032,7 +27035,7 @@
         <v>77001404</v>
       </c>
       <c r="D503" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E503" s="7">
         <v>1</v>
@@ -27070,7 +27073,7 @@
         <v>77001405</v>
       </c>
       <c r="D504" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E504" s="7">
         <v>1</v>
@@ -27108,7 +27111,7 @@
         <v>77001406</v>
       </c>
       <c r="D505" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E505" s="7">
         <v>1</v>
@@ -27146,7 +27149,7 @@
         <v>77001407</v>
       </c>
       <c r="D506" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E506" s="7">
         <v>1</v>
@@ -27184,7 +27187,7 @@
         <v>77001501</v>
       </c>
       <c r="D507" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E507" s="15">
         <v>1</v>
@@ -27222,7 +27225,7 @@
         <v>77001502</v>
       </c>
       <c r="D508" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E508" s="15">
         <v>1</v>
@@ -27260,7 +27263,7 @@
         <v>77001503</v>
       </c>
       <c r="D509" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E509" s="15">
         <v>1</v>
@@ -27298,7 +27301,7 @@
         <v>77001504</v>
       </c>
       <c r="D510" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E510" s="15">
         <v>1</v>
@@ -27336,7 +27339,7 @@
         <v>77001505</v>
       </c>
       <c r="D511" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E511" s="15">
         <v>1</v>
@@ -27374,7 +27377,7 @@
         <v>77001506</v>
       </c>
       <c r="D512" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E512" s="15">
         <v>1</v>
@@ -27412,7 +27415,7 @@
         <v>77001507</v>
       </c>
       <c r="D513" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E513" s="15">
         <v>1</v>
@@ -27450,7 +27453,7 @@
         <v>77001508</v>
       </c>
       <c r="D514" s="15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E514" s="15">
         <v>1</v>
@@ -27488,7 +27491,7 @@
         <v>77001601</v>
       </c>
       <c r="D515" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E515" s="7">
         <v>1</v>
@@ -27526,7 +27529,7 @@
         <v>77001602</v>
       </c>
       <c r="D516" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E516" s="7">
         <v>1</v>
@@ -27564,7 +27567,7 @@
         <v>77001603</v>
       </c>
       <c r="D517" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E517" s="7">
         <v>1</v>
@@ -27602,7 +27605,7 @@
         <v>77001604</v>
       </c>
       <c r="D518" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E518" s="7">
         <v>1</v>
@@ -27640,7 +27643,7 @@
         <v>77001701</v>
       </c>
       <c r="D519" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E519" s="13">
         <v>1</v>
@@ -27678,7 +27681,7 @@
         <v>77001702</v>
       </c>
       <c r="D520" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E520" s="13">
         <v>1</v>
@@ -27716,7 +27719,7 @@
         <v>77001703</v>
       </c>
       <c r="D521" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E521" s="13">
         <v>1</v>
@@ -27754,7 +27757,7 @@
         <v>77001704</v>
       </c>
       <c r="D522" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E522" s="13">
         <v>1</v>
@@ -27792,7 +27795,7 @@
         <v>77001705</v>
       </c>
       <c r="D523" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E523" s="13">
         <v>1</v>
@@ -27830,7 +27833,7 @@
         <v>77001706</v>
       </c>
       <c r="D524" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E524" s="13">
         <v>1</v>
@@ -27868,7 +27871,7 @@
         <v>77001801</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E525" s="11">
         <v>1</v>
@@ -27906,7 +27909,7 @@
         <v>77001802</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E526" s="11">
         <v>1</v>
@@ -27944,7 +27947,7 @@
         <v>77001803</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E527" s="11">
         <v>1</v>
@@ -27982,7 +27985,7 @@
         <v>77001901</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E528" s="7">
         <v>1</v>
@@ -28020,7 +28023,7 @@
         <v>77001902</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E529" s="7">
         <v>1</v>
@@ -28058,7 +28061,7 @@
         <v>77001903</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E530" s="7">
         <v>1</v>
@@ -28096,7 +28099,7 @@
         <v>77001904</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E531" s="7">
         <v>1</v>
@@ -28172,7 +28175,7 @@
         <v>77001906</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E533" s="7">
         <v>1</v>
@@ -28210,7 +28213,7 @@
         <v>77001907</v>
       </c>
       <c r="D534" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E534" s="7">
         <v>1</v>
@@ -28248,7 +28251,7 @@
         <v>77001908</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E535" s="7">
         <v>1</v>
@@ -28286,7 +28289,7 @@
         <v>77002001</v>
       </c>
       <c r="D536" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E536" s="11">
         <v>1</v>
@@ -28324,7 +28327,7 @@
         <v>77002002</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E537" s="11">
         <v>1</v>
@@ -28362,7 +28365,7 @@
         <v>77002003</v>
       </c>
       <c r="D538" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E538" s="11">
         <v>1</v>
@@ -28400,7 +28403,7 @@
         <v>77002004</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E539" s="11">
         <v>1</v>
@@ -28438,7 +28441,7 @@
         <v>77002005</v>
       </c>
       <c r="D540" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E540" s="11">
         <v>1</v>
@@ -28476,7 +28479,7 @@
         <v>77002006</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E541" s="11">
         <v>1</v>
@@ -28514,7 +28517,7 @@
         <v>77002007</v>
       </c>
       <c r="D542" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E542" s="11">
         <v>1</v>
@@ -28552,7 +28555,7 @@
         <v>77002008</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E543" s="11">
         <v>1</v>
@@ -28590,7 +28593,7 @@
         <v>77002009</v>
       </c>
       <c r="D544" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E544" s="11">
         <v>1</v>
@@ -28628,7 +28631,7 @@
         <v>77003001</v>
       </c>
       <c r="D545" s="13" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E545" s="13">
         <v>1</v>
@@ -28666,7 +28669,7 @@
         <v>77003002</v>
       </c>
       <c r="D546" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E546" s="13">
         <v>1</v>
@@ -28704,7 +28707,7 @@
         <v>77003003</v>
       </c>
       <c r="D547" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E547" s="13">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70402EE2-33B3-4508-BB68-AB3B8A819D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF31F26-14FF-4009-B263-2C2739F7358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBuffProto" sheetId="1" r:id="rId1"/>
@@ -8423,10 +8423,10 @@
   <dimension ref="C1:N558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14889,7 +14889,7 @@
         <v>308</v>
       </c>
       <c r="H172" s="5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AB21D2-8A8F-407C-AF73-739752F16945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB589EDB-E7E4-4412-815C-58753989067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="536">
   <si>
     <t>#</t>
   </si>
@@ -1296,64 +1296,22 @@
     <t>Eff_Skill_BaoZha_20</t>
   </si>
   <si>
-    <t>Skill_Bomb_40</t>
-  </si>
-  <si>
-    <t>Eff_Skill_XuanFengZhan_3</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_13a</t>
-  </si>
-  <si>
     <t>Eff_Skill_BaoZha_13</t>
   </si>
   <si>
     <t>Eff_Skill_ChiXu_1</t>
   </si>
   <si>
-    <t>Eff_Skill_BaoZha_14</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_12</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_16</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_18</t>
-  </si>
-  <si>
     <t>通用眩晕特效</t>
   </si>
   <si>
-    <t>Eff_Skill_ChiXu_2</t>
-  </si>
-  <si>
     <t>Eff_Skill_QiuMove_1</t>
   </si>
   <si>
-    <t>Eff_Skill_BaoZhaQian_5</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZhaQian_7</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_21</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_22</t>
-  </si>
-  <si>
     <t>冲锋击</t>
   </si>
   <si>
     <t>Eff_Skill_ChongFeng</t>
-  </si>
-  <si>
-    <t>Eff_Skill_BaoZha_23</t>
-  </si>
-  <si>
-    <t>Eff_Skill_ChiXu_3</t>
   </si>
   <si>
     <t>光环技能特效</t>
@@ -1943,6 +1901,92 @@
   <si>
     <t>Skill_BuffActStatus_3</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_40</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZhaQian_8</t>
+  </si>
+  <si>
+    <t>裂地击</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_13</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_42</t>
+  </si>
+  <si>
+    <t>Eff_Skill_ChiXu_13</t>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_42</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_41</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_17</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_43</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Buff_RanShao</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_44</t>
+  </si>
+  <si>
+    <t>Eff_Skill_ChiXu_14</t>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_XuanFeng</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_39</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_2a</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_19</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eff_Skill_ChiXu_15</t>
   </si>
 </sst>
 </file>
@@ -6572,7 +6616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6677,6 +6721,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1429">
@@ -8439,10 +8486,10 @@
   <dimension ref="C1:N548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8822,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -8936,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -8974,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -9012,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -9050,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -9088,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -9126,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -9164,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -14618,7 +14665,7 @@
         <v>169</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="H165" s="5">
         <v>2</v>
@@ -14714,7 +14761,7 @@
         <v>169</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H168" s="5">
         <v>0.5</v>
@@ -14746,7 +14793,7 @@
         <v>169</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H169" s="5">
         <v>0</v>
@@ -14810,7 +14857,7 @@
         <v>169</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="H171" s="5">
         <v>2.5</v>
@@ -14842,7 +14889,7 @@
         <v>169</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H172" s="5">
         <v>0</v>
@@ -14897,7 +14944,7 @@
         <v>70201001</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
       <c r="E174" s="5">
         <v>1</v>
@@ -14906,7 +14953,7 @@
         <v>169</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>314</v>
+        <v>514</v>
       </c>
       <c r="H174" s="5">
         <v>0.5</v>
@@ -14938,7 +14985,7 @@
         <v>169</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>315</v>
+        <v>513</v>
       </c>
       <c r="H175" s="5">
         <v>3</v>
@@ -14970,10 +15017,10 @@
         <v>169</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="H176" s="5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
@@ -14985,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="3">
-        <v>6000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="177" spans="3:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -15002,7 +15049,7 @@
         <v>169</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="H177" s="5">
         <v>2.5</v>
@@ -15034,7 +15081,7 @@
         <v>169</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>318</v>
+        <v>519</v>
       </c>
       <c r="H178" s="5">
         <v>0.5</v>
@@ -15066,7 +15113,7 @@
         <v>169</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>319</v>
+        <v>520</v>
       </c>
       <c r="H179" s="5">
         <v>1.8</v>
@@ -15098,7 +15145,7 @@
         <v>169</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="H180" s="5">
         <v>3</v>
@@ -15130,7 +15177,7 @@
         <v>169</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>321</v>
+        <v>521</v>
       </c>
       <c r="H181" s="5">
         <v>2.5</v>
@@ -15162,7 +15209,7 @@
         <v>169</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>157</v>
+        <v>522</v>
       </c>
       <c r="H182" s="5">
         <v>2.5</v>
@@ -15194,7 +15241,7 @@
         <v>169</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>322</v>
+        <v>523</v>
       </c>
       <c r="H183" s="5">
         <v>3</v>
@@ -15226,7 +15273,7 @@
         <v>169</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H184" s="5">
         <v>3</v>
@@ -15249,7 +15296,7 @@
         <v>70204004</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -15258,7 +15305,7 @@
         <v>169</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>297</v>
+        <v>524</v>
       </c>
       <c r="H185" s="5">
         <v>0</v>
@@ -15286,11 +15333,11 @@
       <c r="E186" s="5">
         <v>1</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>169</v>
+      <c r="F186" s="41">
+        <v>0</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
       <c r="H186" s="5">
         <v>2</v>
@@ -15318,11 +15365,11 @@
       <c r="E187" s="5">
         <v>1</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>169</v>
+      <c r="F187" s="41">
+        <v>0</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="H187" s="5">
         <v>2.5</v>
@@ -15350,11 +15397,11 @@
       <c r="E188" s="5">
         <v>1</v>
       </c>
-      <c r="F188" s="5" t="s">
-        <v>169</v>
+      <c r="F188" s="41">
+        <v>0</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>324</v>
+        <v>526</v>
       </c>
       <c r="H188" s="5">
         <v>0.5</v>
@@ -15382,11 +15429,11 @@
       <c r="E189" s="5">
         <v>1</v>
       </c>
-      <c r="F189" s="5" t="s">
-        <v>169</v>
+      <c r="F189" s="41">
+        <v>0</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>316</v>
+        <v>517</v>
       </c>
       <c r="H189" s="5">
         <v>2.5</v>
@@ -15414,11 +15461,11 @@
       <c r="E190" s="5">
         <v>1</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>169</v>
+      <c r="F190" s="41">
+        <v>0</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H190" s="5">
         <v>2.5</v>
@@ -15446,11 +15493,11 @@
       <c r="E191" s="5">
         <v>1</v>
       </c>
-      <c r="F191" s="5" t="s">
-        <v>169</v>
+      <c r="F191" s="41">
+        <v>0</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H191" s="5">
         <v>0.5</v>
@@ -15478,11 +15525,11 @@
       <c r="E192" s="5">
         <v>1</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>169</v>
+      <c r="F192" s="41">
+        <v>0</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H192" s="5">
         <v>0</v>
@@ -15510,11 +15557,11 @@
       <c r="E193" s="5">
         <v>1</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>169</v>
+      <c r="F193" s="41">
+        <v>0</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>317</v>
+        <v>520</v>
       </c>
       <c r="H193" s="5">
         <v>2.5</v>
@@ -15542,11 +15589,11 @@
       <c r="E194" s="5">
         <v>1</v>
       </c>
-      <c r="F194" s="5" t="s">
-        <v>169</v>
+      <c r="F194" s="41">
+        <v>0</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
       <c r="H194" s="5">
         <v>2.5</v>
@@ -15578,7 +15625,7 @@
         <v>169</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="H195" s="5">
         <v>2.5</v>
@@ -15610,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>326</v>
+        <v>529</v>
       </c>
       <c r="H196" s="5">
         <v>1</v>
@@ -15642,7 +15689,7 @@
         <v>169</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>327</v>
+        <v>528</v>
       </c>
       <c r="H197" s="5">
         <v>1</v>
@@ -15674,7 +15721,7 @@
         <v>169</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>328</v>
+        <v>530</v>
       </c>
       <c r="H198" s="5">
         <v>2</v>
@@ -15706,7 +15753,7 @@
         <v>169</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="H199" s="5">
         <v>0.5</v>
@@ -15738,7 +15785,7 @@
         <v>169</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="H200" s="5">
         <v>2.5</v>
@@ -15770,7 +15817,7 @@
         <v>169</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="H201" s="5">
         <v>2</v>
@@ -15793,7 +15840,7 @@
         <v>70404001</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E202" s="5">
         <v>1</v>
@@ -15802,7 +15849,7 @@
         <v>169</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H202" s="5">
         <v>1.1000000000000001</v>
@@ -15834,7 +15881,7 @@
         <v>169</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>332</v>
+        <v>532</v>
       </c>
       <c r="H203" s="5">
         <v>2</v>
@@ -15866,7 +15913,7 @@
         <v>169</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>308</v>
+        <v>533</v>
       </c>
       <c r="H204" s="5">
         <v>2</v>
@@ -15898,7 +15945,7 @@
         <v>169</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>155</v>
+        <v>534</v>
       </c>
       <c r="H205" s="5">
         <v>2</v>
@@ -15930,7 +15977,7 @@
         <v>169</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>155</v>
+        <v>534</v>
       </c>
       <c r="H206" s="5">
         <v>2</v>
@@ -15962,7 +16009,7 @@
         <v>169</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>333</v>
+        <v>535</v>
       </c>
       <c r="H207" s="5">
         <v>0.5</v>
@@ -15985,7 +16032,7 @@
         <v>80000001</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E208" s="5">
         <v>1</v>
@@ -15994,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H208" s="18">
         <v>0</v>
@@ -16017,7 +16064,7 @@
         <v>80000002</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E209" s="5">
         <v>1</v>
@@ -16026,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H209" s="18">
         <v>0</v>
@@ -16049,7 +16096,7 @@
         <v>80000003</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E210" s="5">
         <v>1</v>
@@ -16058,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H210" s="18">
         <v>0</v>
@@ -16081,7 +16128,7 @@
         <v>80000004</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -16090,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H211" s="18">
         <v>0</v>
@@ -16113,7 +16160,7 @@
         <v>80000005</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E212" s="5">
         <v>1</v>
@@ -16122,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H212" s="18">
         <v>0</v>
@@ -16145,7 +16192,7 @@
         <v>80000006</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -16154,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H213" s="18">
         <v>0</v>
@@ -16177,7 +16224,7 @@
         <v>80000007</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="E214" s="5">
         <v>1</v>
@@ -16186,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="26" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H214" s="18">
         <v>0</v>
@@ -16209,7 +16256,7 @@
         <v>80000202</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -16218,7 +16265,7 @@
         <v>169</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H215" s="5">
         <v>0.5</v>
@@ -16241,7 +16288,7 @@
         <v>10000001</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E216" s="6">
         <v>2</v>
@@ -16279,7 +16326,7 @@
         <v>10000002</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E217" s="6">
         <v>2</v>
@@ -16317,7 +16364,7 @@
         <v>10000003</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E218" s="6">
         <v>2</v>
@@ -16355,7 +16402,7 @@
         <v>10000004</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E219" s="6">
         <v>2</v>
@@ -16393,7 +16440,7 @@
         <v>10000005</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E220" s="6">
         <v>2</v>
@@ -16431,7 +16478,7 @@
         <v>10000006</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E221" s="6">
         <v>2</v>
@@ -16469,7 +16516,7 @@
         <v>10000007</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E222" s="6">
         <v>2</v>
@@ -16507,7 +16554,7 @@
         <v>10000008</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E223" s="6">
         <v>2</v>
@@ -16545,7 +16592,7 @@
         <v>10000009</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E224" s="6">
         <v>2</v>
@@ -16583,7 +16630,7 @@
         <v>10000010</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E225" s="6">
         <v>2</v>
@@ -16621,7 +16668,7 @@
         <v>10000011</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E226" s="6">
         <v>2</v>
@@ -16659,7 +16706,7 @@
         <v>10000012</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E227" s="6">
         <v>2</v>
@@ -16697,7 +16744,7 @@
         <v>10000013</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E228" s="6">
         <v>2</v>
@@ -16735,7 +16782,7 @@
         <v>10000014</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E229" s="6">
         <v>2</v>
@@ -16773,7 +16820,7 @@
         <v>10000015</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E230" s="6">
         <v>2</v>
@@ -16811,7 +16858,7 @@
         <v>10001001</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E231" s="6">
         <v>2</v>
@@ -16849,7 +16896,7 @@
         <v>10001002</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E232" s="6">
         <v>2</v>
@@ -16887,7 +16934,7 @@
         <v>10001003</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E233" s="6">
         <v>2</v>
@@ -16925,7 +16972,7 @@
         <v>10001004</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E234" s="8">
         <v>2</v>
@@ -16963,7 +17010,7 @@
         <v>10001005</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E235" s="6">
         <v>2</v>
@@ -17001,7 +17048,7 @@
         <v>10001006</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E236" s="6">
         <v>2</v>
@@ -17039,7 +17086,7 @@
         <v>10001007</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E237" s="6">
         <v>2</v>
@@ -17077,7 +17124,7 @@
         <v>10001008</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E238" s="6">
         <v>2</v>
@@ -17115,7 +17162,7 @@
         <v>10001009</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E239" s="6">
         <v>2</v>
@@ -17153,7 +17200,7 @@
         <v>10001010</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E240" s="6">
         <v>2</v>
@@ -17191,7 +17238,7 @@
         <v>10001011</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E241" s="6">
         <v>2</v>
@@ -17229,7 +17276,7 @@
         <v>10002001</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E242" s="6">
         <v>2</v>
@@ -17267,7 +17314,7 @@
         <v>10002002</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E243" s="6">
         <v>2</v>
@@ -17305,7 +17352,7 @@
         <v>10002003</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E244" s="6">
         <v>2</v>
@@ -17343,7 +17390,7 @@
         <v>10002004</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E245" s="6">
         <v>2</v>
@@ -17381,7 +17428,7 @@
         <v>10002005</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E246" s="6">
         <v>2</v>
@@ -17419,7 +17466,7 @@
         <v>10003001</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E247" s="6">
         <v>2</v>
@@ -17457,7 +17504,7 @@
         <v>10003002</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E248" s="6">
         <v>2</v>
@@ -17495,7 +17542,7 @@
         <v>10004001</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E249" s="6">
         <v>2</v>
@@ -17533,7 +17580,7 @@
         <v>10004002</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E250" s="6">
         <v>2</v>
@@ -17571,7 +17618,7 @@
         <v>10004003</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E251" s="6">
         <v>2</v>
@@ -17609,7 +17656,7 @@
         <v>10004004</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E252" s="6">
         <v>2</v>
@@ -17647,7 +17694,7 @@
         <v>10004005</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E253" s="6">
         <v>2</v>
@@ -17685,7 +17732,7 @@
         <v>10005001</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E254" s="6">
         <v>2</v>
@@ -17723,7 +17770,7 @@
         <v>10006001</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E255" s="6">
         <v>2</v>
@@ -17761,7 +17808,7 @@
         <v>10007001</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E256" s="6">
         <v>2</v>
@@ -17799,7 +17846,7 @@
         <v>10007002</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E257" s="6">
         <v>2</v>
@@ -17837,7 +17884,7 @@
         <v>10007003</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E258" s="6">
         <v>2</v>
@@ -17875,7 +17922,7 @@
         <v>10008001</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E259" s="6">
         <v>2</v>
@@ -17913,7 +17960,7 @@
         <v>11000001</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
@@ -17951,7 +17998,7 @@
         <v>11000002</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
@@ -17989,7 +18036,7 @@
         <v>11000003</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
@@ -18027,7 +18074,7 @@
         <v>11000004</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
@@ -18065,7 +18112,7 @@
         <v>11000005</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
@@ -18103,7 +18150,7 @@
         <v>11000006</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
@@ -18141,7 +18188,7 @@
         <v>11000007</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
@@ -19544,7 +19591,7 @@
         <v>20001010</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E306" s="6">
         <v>1</v>
@@ -19582,7 +19629,7 @@
         <v>20001020</v>
       </c>
       <c r="D307" s="27" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E307" s="6">
         <v>1</v>
@@ -19620,7 +19667,7 @@
         <v>20001030</v>
       </c>
       <c r="D308" s="27" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E308" s="6">
         <v>1</v>
@@ -19810,7 +19857,7 @@
         <v>20100110</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E313" s="6">
         <v>1</v>
@@ -19848,7 +19895,7 @@
         <v>20100120</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
@@ -19886,7 +19933,7 @@
         <v>20100130</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -20000,7 +20047,7 @@
         <v>20100410</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -20038,7 +20085,7 @@
         <v>20100420</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -20228,7 +20275,7 @@
         <v>21000130</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E324" s="6">
         <v>1</v>
@@ -20266,7 +20313,7 @@
         <v>21010010</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E325" s="6">
         <v>1</v>
@@ -20342,7 +20389,7 @@
         <v>21010030</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E327" s="6">
         <v>1</v>
@@ -20418,7 +20465,7 @@
         <v>21010050</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E329" s="6">
         <v>1</v>
@@ -20456,7 +20503,7 @@
         <v>21020010</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E330" s="6">
         <v>1</v>
@@ -20494,7 +20541,7 @@
         <v>21020020</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E331" s="6">
         <v>1</v>
@@ -20532,7 +20579,7 @@
         <v>21020030</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E332" s="6">
         <v>1</v>
@@ -20570,7 +20617,7 @@
         <v>21020040</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E333" s="6">
         <v>1</v>
@@ -20608,7 +20655,7 @@
         <v>21020050</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E334" s="6">
         <v>1</v>
@@ -20646,7 +20693,7 @@
         <v>21020101</v>
       </c>
       <c r="D335" s="27" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E335" s="6">
         <v>1</v>
@@ -20684,7 +20731,7 @@
         <v>21030010</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E336" s="6">
         <v>1</v>
@@ -20722,7 +20769,7 @@
         <v>21030020</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E337" s="6">
         <v>1</v>
@@ -20760,7 +20807,7 @@
         <v>21030030</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E338" s="6">
         <v>1</v>
@@ -20798,7 +20845,7 @@
         <v>21030040</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E339" s="6">
         <v>1</v>
@@ -20874,7 +20921,7 @@
         <v>21100020</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E341" s="6">
         <v>1</v>
@@ -20912,7 +20959,7 @@
         <v>21100030</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E342" s="6">
         <v>1</v>
@@ -21026,7 +21073,7 @@
         <v>21100060</v>
       </c>
       <c r="D345" s="27" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E345" s="6">
         <v>1</v>
@@ -21064,7 +21111,7 @@
         <v>21101010</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E346" s="6">
         <v>1</v>
@@ -21102,7 +21149,7 @@
         <v>21101011</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E347" s="6">
         <v>1</v>
@@ -21140,7 +21187,7 @@
         <v>21101020</v>
       </c>
       <c r="D348" s="27" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E348" s="6">
         <v>1</v>
@@ -21178,7 +21225,7 @@
         <v>21101021</v>
       </c>
       <c r="D349" s="27" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E349" s="6">
         <v>1</v>
@@ -21216,7 +21263,7 @@
         <v>21101022</v>
       </c>
       <c r="D350" s="27" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E350" s="6">
         <v>1</v>
@@ -21254,7 +21301,7 @@
         <v>21101030</v>
       </c>
       <c r="D351" s="27" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E351" s="6">
         <v>1</v>
@@ -21292,7 +21339,7 @@
         <v>21101040</v>
       </c>
       <c r="D352" s="27" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E352" s="6">
         <v>1</v>
@@ -21330,7 +21377,7 @@
         <v>21101050</v>
       </c>
       <c r="D353" s="27" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E353" s="6">
         <v>1</v>
@@ -21368,7 +21415,7 @@
         <v>21101051</v>
       </c>
       <c r="D354" s="27" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E354" s="6">
         <v>1</v>
@@ -21406,7 +21453,7 @@
         <v>21102010</v>
       </c>
       <c r="D355" s="27" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E355" s="6">
         <v>2</v>
@@ -21482,7 +21529,7 @@
         <v>21102030</v>
       </c>
       <c r="D357" s="27" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E357" s="6">
         <v>1</v>
@@ -21558,7 +21605,7 @@
         <v>21102040</v>
       </c>
       <c r="D359" s="27" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E359" s="6">
         <v>1</v>
@@ -21672,7 +21719,7 @@
         <v>21103030</v>
       </c>
       <c r="D362" s="27" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E362" s="6">
         <v>1</v>
@@ -21710,7 +21757,7 @@
         <v>21103040</v>
       </c>
       <c r="D363" s="27" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E363" s="6">
         <v>1</v>
@@ -21748,7 +21795,7 @@
         <v>21200010</v>
       </c>
       <c r="D364" s="28" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E364" s="6">
         <v>1</v>
@@ -21786,7 +21833,7 @@
         <v>21200030</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E365" s="8">
         <v>1</v>
@@ -21824,7 +21871,7 @@
         <v>21200031</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E366" s="8">
         <v>2</v>
@@ -21862,7 +21909,7 @@
         <v>21200110</v>
       </c>
       <c r="D367" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E367" s="6">
         <v>1</v>
@@ -21900,7 +21947,7 @@
         <v>21200120</v>
       </c>
       <c r="D368" s="27" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E368" s="6">
         <v>2</v>
@@ -21938,7 +21985,7 @@
         <v>21200130</v>
       </c>
       <c r="D369" s="27" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E369" s="6">
         <v>1</v>
@@ -21976,7 +22023,7 @@
         <v>21201010</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="E370" s="6">
         <v>1</v>
@@ -22014,7 +22061,7 @@
         <v>21201020</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="E371" s="6">
         <v>1</v>
@@ -22052,7 +22099,7 @@
         <v>21201030</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E372" s="6">
         <v>1</v>
@@ -22090,7 +22137,7 @@
         <v>21201040</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E373" s="6">
         <v>1</v>
@@ -22128,7 +22175,7 @@
         <v>21201050</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E374" s="6">
         <v>1</v>
@@ -22166,7 +22213,7 @@
         <v>21201090</v>
       </c>
       <c r="D375" s="27" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E375" s="6">
         <v>1</v>
@@ -22204,7 +22251,7 @@
         <v>21202010</v>
       </c>
       <c r="D376" s="27" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E376" s="6">
         <v>1</v>
@@ -22242,7 +22289,7 @@
         <v>21202020</v>
       </c>
       <c r="D377" s="27" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E377" s="6">
         <v>1</v>
@@ -22280,7 +22327,7 @@
         <v>21202030</v>
       </c>
       <c r="D378" s="27" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E378" s="6">
         <v>1</v>
@@ -22318,7 +22365,7 @@
         <v>21202031</v>
       </c>
       <c r="D379" s="27" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E379" s="6">
         <v>1</v>
@@ -22356,7 +22403,7 @@
         <v>21202040</v>
       </c>
       <c r="D380" s="27" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E380" s="6">
         <v>1</v>
@@ -22394,7 +22441,7 @@
         <v>21202090</v>
       </c>
       <c r="D381" s="27" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E381" s="6">
         <v>1</v>
@@ -22432,7 +22479,7 @@
         <v>21203010</v>
       </c>
       <c r="D382" s="27" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E382" s="6">
         <v>1</v>
@@ -22470,7 +22517,7 @@
         <v>21203020</v>
       </c>
       <c r="D383" s="27" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E383" s="6">
         <v>2</v>
@@ -22508,7 +22555,7 @@
         <v>21203021</v>
       </c>
       <c r="D384" s="27" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E384" s="6">
         <v>1</v>
@@ -22546,7 +22593,7 @@
         <v>21203030</v>
       </c>
       <c r="D385" s="27" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="E385" s="6">
         <v>1</v>
@@ -22584,7 +22631,7 @@
         <v>21203090</v>
       </c>
       <c r="D386" s="27" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E386" s="6">
         <v>1</v>
@@ -22622,7 +22669,7 @@
         <v>22000010</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E387" s="6">
         <v>1</v>
@@ -22660,7 +22707,7 @@
         <v>22000011</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E388" s="6">
         <v>1</v>
@@ -22698,7 +22745,7 @@
         <v>22000020</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E389" s="6">
         <v>1</v>
@@ -22888,7 +22935,7 @@
         <v>22000040</v>
       </c>
       <c r="D394" s="27" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E394" s="6">
         <v>1</v>
@@ -22926,7 +22973,7 @@
         <v>22001001</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E395" s="8">
         <v>1</v>
@@ -22964,7 +23011,7 @@
         <v>22001002</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E396" s="8">
         <v>1</v>
@@ -23002,7 +23049,7 @@
         <v>22001003</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E397" s="8">
         <v>1</v>
@@ -23040,7 +23087,7 @@
         <v>22001004</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E398" s="8">
         <v>1</v>
@@ -23078,7 +23125,7 @@
         <v>22001005</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E399" s="8">
         <v>1</v>
@@ -23116,7 +23163,7 @@
         <v>22001006</v>
       </c>
       <c r="D400" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E400" s="8">
         <v>1</v>
@@ -23154,7 +23201,7 @@
         <v>23000010</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E401" s="6">
         <v>1</v>
@@ -23192,7 +23239,7 @@
         <v>23000020</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="E402" s="6">
         <v>1</v>
@@ -23230,7 +23277,7 @@
         <v>23000030</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E403" s="6">
         <v>1</v>
@@ -23268,7 +23315,7 @@
         <v>23000040</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="E404" s="6">
         <v>1</v>
@@ -23306,7 +23353,7 @@
         <v>23000050</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="E405" s="6">
         <v>1</v>
@@ -23344,7 +23391,7 @@
         <v>23000060</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="E406" s="6">
         <v>1</v>
@@ -23382,7 +23429,7 @@
         <v>23000070</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E407" s="11">
         <v>1</v>
@@ -23420,7 +23467,7 @@
         <v>23000080</v>
       </c>
       <c r="D408" s="27" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E408" s="6">
         <v>1</v>
@@ -23458,7 +23505,7 @@
         <v>23000101</v>
       </c>
       <c r="D409" s="29" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E409" s="12">
         <v>1</v>
@@ -23496,7 +23543,7 @@
         <v>23000102</v>
       </c>
       <c r="D410" s="12" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E410" s="12">
         <v>1</v>
@@ -23534,7 +23581,7 @@
         <v>23000103</v>
       </c>
       <c r="D411" s="12" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E411" s="12">
         <v>1</v>
@@ -23572,7 +23619,7 @@
         <v>23000104</v>
       </c>
       <c r="D412" s="12" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E412" s="12">
         <v>1</v>
@@ -23610,7 +23657,7 @@
         <v>23000105</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="E413" s="12">
         <v>1</v>
@@ -23648,7 +23695,7 @@
         <v>23000106</v>
       </c>
       <c r="D414" s="30" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E414" s="12">
         <v>1</v>
@@ -23686,7 +23733,7 @@
         <v>23000201</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E415" s="8">
         <v>1</v>
@@ -23724,7 +23771,7 @@
         <v>23000202</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="E416" s="8">
         <v>1</v>
@@ -23762,7 +23809,7 @@
         <v>23000211</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E417" s="8">
         <v>1</v>
@@ -23800,7 +23847,7 @@
         <v>23000212</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="E418" s="8">
         <v>1</v>
@@ -23838,7 +23885,7 @@
         <v>23000221</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="E419" s="8">
         <v>1</v>
@@ -23876,7 +23923,7 @@
         <v>23000222</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E420" s="8">
         <v>1</v>
@@ -23914,7 +23961,7 @@
         <v>23000223</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E421" s="8">
         <v>1</v>
@@ -23990,7 +24037,7 @@
         <v>30000001</v>
       </c>
       <c r="D423" s="32" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -24066,7 +24113,7 @@
         <v>30000004</v>
       </c>
       <c r="D425" s="32" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -24104,7 +24151,7 @@
         <v>30000003</v>
       </c>
       <c r="D426" s="32" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -24142,7 +24189,7 @@
         <v>40000001</v>
       </c>
       <c r="D427" s="32" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E427" s="6">
         <v>1</v>
@@ -24256,7 +24303,7 @@
         <v>40000004</v>
       </c>
       <c r="D430" s="32" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="E430" s="6">
         <v>1</v>
@@ -24294,7 +24341,7 @@
         <v>40000005</v>
       </c>
       <c r="D431" s="32" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E431" s="6">
         <v>1</v>
@@ -24332,7 +24379,7 @@
         <v>40000006</v>
       </c>
       <c r="D432" s="32" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="E432" s="6">
         <v>1</v>
@@ -24370,7 +24417,7 @@
         <v>40000007</v>
       </c>
       <c r="D433" s="32" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E433" s="6">
         <v>1</v>
@@ -24408,7 +24455,7 @@
         <v>40000008</v>
       </c>
       <c r="D434" s="32" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="E434" s="6">
         <v>1</v>
@@ -24446,7 +24493,7 @@
         <v>50000001</v>
       </c>
       <c r="D435" s="32" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E435" s="6">
         <v>1</v>
@@ -24484,7 +24531,7 @@
         <v>60000001</v>
       </c>
       <c r="D436" s="32" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E436" s="6">
         <v>1</v>
@@ -24560,7 +24607,7 @@
         <v>60000003</v>
       </c>
       <c r="D438" s="32" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E438" s="6">
         <v>1</v>
@@ -24598,7 +24645,7 @@
         <v>60000004</v>
       </c>
       <c r="D439" s="34" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E439" s="6">
         <v>1</v>
@@ -24788,7 +24835,7 @@
         <v>62001204</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E444" s="12">
         <v>1</v>
@@ -24826,7 +24873,7 @@
         <v>62001205</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E445" s="12">
         <v>1</v>
@@ -24864,7 +24911,7 @@
         <v>62001401</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E446" s="8">
         <v>1</v>
@@ -24902,7 +24949,7 @@
         <v>62001402</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="E447" s="8">
         <v>1</v>
@@ -24940,7 +24987,7 @@
         <v>62001403</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="E448" s="12">
         <v>1</v>
@@ -24978,7 +25025,7 @@
         <v>62001501</v>
       </c>
       <c r="D449" s="8" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E449" s="8">
         <v>1</v>
@@ -25016,7 +25063,7 @@
         <v>62001502</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="E450" s="8">
         <v>1</v>
@@ -25054,7 +25101,7 @@
         <v>62001503</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="E451" s="8">
         <v>1</v>
@@ -25092,7 +25139,7 @@
         <v>62001601</v>
       </c>
       <c r="D452" s="12" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E452" s="12">
         <v>1</v>
@@ -25130,7 +25177,7 @@
         <v>62001602</v>
       </c>
       <c r="D453" s="12" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E453" s="12">
         <v>1</v>
@@ -25168,7 +25215,7 @@
         <v>62001603</v>
       </c>
       <c r="D454" s="12" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E454" s="12">
         <v>1</v>
@@ -25206,7 +25253,7 @@
         <v>62005101</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="E455" s="8">
         <v>1</v>
@@ -25244,7 +25291,7 @@
         <v>62005102</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E456" s="8">
         <v>1</v>
@@ -25282,7 +25329,7 @@
         <v>62005103</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E457" s="8">
         <v>1</v>
@@ -25358,7 +25405,7 @@
         <v>62006101</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E459" s="14">
         <v>1</v>
@@ -25396,7 +25443,7 @@
         <v>62006102</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="E460" s="14">
         <v>1</v>
@@ -25434,7 +25481,7 @@
         <v>62006103</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E461" s="14">
         <v>1</v>
@@ -25472,7 +25519,7 @@
         <v>62006104</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="E462" s="14">
         <v>1</v>
@@ -25510,7 +25557,7 @@
         <v>62006201</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E463" s="12">
         <v>1</v>
@@ -25548,7 +25595,7 @@
         <v>62006202</v>
       </c>
       <c r="D464" s="12" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E464" s="12">
         <v>1</v>
@@ -25586,7 +25633,7 @@
         <v>62006203</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E465" s="12">
         <v>1</v>
@@ -25624,7 +25671,7 @@
         <v>62006301</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E466" s="14">
         <v>1</v>
@@ -25700,7 +25747,7 @@
         <v>62006303</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="E468" s="14">
         <v>1</v>
@@ -25738,7 +25785,7 @@
         <v>62006304</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E469" s="14">
         <v>1</v>
@@ -25776,7 +25823,7 @@
         <v>62009001</v>
       </c>
       <c r="D470" s="12" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="E470" s="12">
         <v>1</v>
@@ -25814,7 +25861,7 @@
         <v>62009002</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E471" s="12">
         <v>1</v>
@@ -26004,7 +26051,7 @@
         <v>90010403</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E476" s="6">
         <v>1</v>
@@ -26156,7 +26203,7 @@
         <v>91000106</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E480" s="6">
         <v>1</v>
@@ -26194,7 +26241,7 @@
         <v>91000107</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="E481" s="6">
         <v>1</v>
@@ -26232,7 +26279,7 @@
         <v>91000108</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="E482" s="6">
         <v>1</v>
@@ -26270,7 +26317,7 @@
         <v>91000109</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E483" s="6">
         <v>1</v>
@@ -26346,7 +26393,7 @@
         <v>91000315</v>
       </c>
       <c r="D485" s="39" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E485" s="16">
         <v>1</v>
@@ -26384,7 +26431,7 @@
         <v>77001101</v>
       </c>
       <c r="D486" s="8" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E486" s="8">
         <v>1</v>
@@ -26422,7 +26469,7 @@
         <v>77001102</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E487" s="8">
         <v>1</v>
@@ -26460,7 +26507,7 @@
         <v>77001103</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="E488" s="8">
         <v>1</v>
@@ -26574,7 +26621,7 @@
         <v>77001201</v>
       </c>
       <c r="D491" s="16" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="E491" s="16">
         <v>1</v>
@@ -26612,7 +26659,7 @@
         <v>77001202</v>
       </c>
       <c r="D492" s="16" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E492" s="16">
         <v>1</v>
@@ -26650,7 +26697,7 @@
         <v>77001203</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E493" s="16">
         <v>1</v>
@@ -26688,7 +26735,7 @@
         <v>77001204</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="E494" s="16">
         <v>1</v>
@@ -26726,7 +26773,7 @@
         <v>77001205</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E495" s="16">
         <v>1</v>
@@ -26764,7 +26811,7 @@
         <v>77001301</v>
       </c>
       <c r="D496" s="12" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E496" s="12">
         <v>1</v>
@@ -26802,7 +26849,7 @@
         <v>77001302</v>
       </c>
       <c r="D497" s="12" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="E497" s="12">
         <v>1</v>
@@ -26840,7 +26887,7 @@
         <v>77001303</v>
       </c>
       <c r="D498" s="12" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="E498" s="12">
         <v>1</v>
@@ -26878,7 +26925,7 @@
         <v>77001304</v>
       </c>
       <c r="D499" s="12" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E499" s="12">
         <v>1</v>
@@ -26916,7 +26963,7 @@
         <v>77001305</v>
       </c>
       <c r="D500" s="12" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E500" s="12">
         <v>1</v>
@@ -26954,7 +27001,7 @@
         <v>77001401</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="E501" s="8">
         <v>1</v>
@@ -26992,7 +27039,7 @@
         <v>77001402</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E502" s="8">
         <v>1</v>
@@ -27030,7 +27077,7 @@
         <v>77001403</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="E503" s="8">
         <v>1</v>
@@ -27068,7 +27115,7 @@
         <v>77001404</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E504" s="8">
         <v>1</v>
@@ -27106,7 +27153,7 @@
         <v>77001405</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="E505" s="8">
         <v>1</v>
@@ -27144,7 +27191,7 @@
         <v>77001406</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E506" s="8">
         <v>1</v>
@@ -27182,7 +27229,7 @@
         <v>77001407</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E507" s="8">
         <v>1</v>
@@ -27220,7 +27267,7 @@
         <v>77001501</v>
       </c>
       <c r="D508" s="16" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E508" s="16">
         <v>1</v>
@@ -27258,7 +27305,7 @@
         <v>77001502</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E509" s="16">
         <v>1</v>
@@ -27296,7 +27343,7 @@
         <v>77001503</v>
       </c>
       <c r="D510" s="16" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E510" s="16">
         <v>1</v>
@@ -27334,7 +27381,7 @@
         <v>77001504</v>
       </c>
       <c r="D511" s="16" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E511" s="16">
         <v>1</v>
@@ -27372,7 +27419,7 @@
         <v>77001505</v>
       </c>
       <c r="D512" s="16" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="E512" s="16">
         <v>1</v>
@@ -27410,7 +27457,7 @@
         <v>77001506</v>
       </c>
       <c r="D513" s="16" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E513" s="16">
         <v>1</v>
@@ -27448,7 +27495,7 @@
         <v>77001507</v>
       </c>
       <c r="D514" s="16" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="E514" s="16">
         <v>1</v>
@@ -27524,7 +27571,7 @@
         <v>77001601</v>
       </c>
       <c r="D516" s="8" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="E516" s="8">
         <v>1</v>
@@ -27562,7 +27609,7 @@
         <v>77001602</v>
       </c>
       <c r="D517" s="8" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="E517" s="8">
         <v>1</v>
@@ -27600,7 +27647,7 @@
         <v>77001603</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="E518" s="8">
         <v>1</v>
@@ -27638,7 +27685,7 @@
         <v>77001604</v>
       </c>
       <c r="D519" s="8" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="E519" s="8">
         <v>1</v>
@@ -27676,7 +27723,7 @@
         <v>77001701</v>
       </c>
       <c r="D520" s="14" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E520" s="14">
         <v>1</v>
@@ -27714,7 +27761,7 @@
         <v>77001702</v>
       </c>
       <c r="D521" s="14" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E521" s="14">
         <v>1</v>
@@ -27752,7 +27799,7 @@
         <v>77001703</v>
       </c>
       <c r="D522" s="14" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="E522" s="14">
         <v>1</v>
@@ -27790,7 +27837,7 @@
         <v>77001704</v>
       </c>
       <c r="D523" s="14" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="E523" s="14">
         <v>1</v>
@@ -27828,7 +27875,7 @@
         <v>77001705</v>
       </c>
       <c r="D524" s="14" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E524" s="14">
         <v>1</v>
@@ -27866,7 +27913,7 @@
         <v>77001706</v>
       </c>
       <c r="D525" s="14" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E525" s="14">
         <v>1</v>
@@ -27904,7 +27951,7 @@
         <v>77001801</v>
       </c>
       <c r="D526" s="12" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E526" s="12">
         <v>1</v>
@@ -27942,7 +27989,7 @@
         <v>77001802</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="E527" s="12">
         <v>1</v>
@@ -27980,7 +28027,7 @@
         <v>77001803</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E528" s="12">
         <v>1</v>
@@ -28018,7 +28065,7 @@
         <v>77001901</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E529" s="8">
         <v>1</v>
@@ -28056,7 +28103,7 @@
         <v>77001902</v>
       </c>
       <c r="D530" s="8" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E530" s="8">
         <v>1</v>
@@ -28094,7 +28141,7 @@
         <v>77001903</v>
       </c>
       <c r="D531" s="8" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E531" s="8">
         <v>1</v>
@@ -28132,7 +28179,7 @@
         <v>77001904</v>
       </c>
       <c r="D532" s="8" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E532" s="8">
         <v>1</v>
@@ -28208,7 +28255,7 @@
         <v>77001906</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E534" s="8">
         <v>1</v>
@@ -28246,7 +28293,7 @@
         <v>77001907</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="E535" s="8">
         <v>1</v>
@@ -28284,7 +28331,7 @@
         <v>77001908</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="E536" s="8">
         <v>1</v>
@@ -28322,7 +28369,7 @@
         <v>77002001</v>
       </c>
       <c r="D537" s="12" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E537" s="12">
         <v>1</v>
@@ -28360,7 +28407,7 @@
         <v>77002002</v>
       </c>
       <c r="D538" s="12" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E538" s="12">
         <v>1</v>
@@ -28398,7 +28445,7 @@
         <v>77002003</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E539" s="12">
         <v>1</v>
@@ -28436,7 +28483,7 @@
         <v>77002004</v>
       </c>
       <c r="D540" s="12" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="E540" s="12">
         <v>1</v>
@@ -28474,7 +28521,7 @@
         <v>77002005</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="E541" s="12">
         <v>1</v>
@@ -28512,7 +28559,7 @@
         <v>77002006</v>
       </c>
       <c r="D542" s="12" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="E542" s="12">
         <v>1</v>
@@ -28550,7 +28597,7 @@
         <v>77002007</v>
       </c>
       <c r="D543" s="12" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E543" s="12">
         <v>1</v>
@@ -28588,7 +28635,7 @@
         <v>77002008</v>
       </c>
       <c r="D544" s="12" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E544" s="12">
         <v>1</v>
@@ -28626,7 +28673,7 @@
         <v>77002009</v>
       </c>
       <c r="D545" s="12" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E545" s="12">
         <v>1</v>
@@ -28664,7 +28711,7 @@
         <v>77003001</v>
       </c>
       <c r="D546" s="14" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E546" s="14">
         <v>1</v>
@@ -28702,7 +28749,7 @@
         <v>77003002</v>
       </c>
       <c r="D547" s="14" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E547" s="14">
         <v>1</v>
@@ -28740,7 +28787,7 @@
         <v>77003003</v>
       </c>
       <c r="D548" s="14" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="E548" s="14">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB589EDB-E7E4-4412-815C-58753989067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA722-D263-4044-A009-4424E5993338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1914,10 +1914,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Eff_Skill_BaoZha_13</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>Eff_Skill_BaoZha_42</t>
   </si>
   <si>
@@ -1987,6 +1983,10 @@
   </si>
   <si>
     <t>Eff_Skill_ChiXu_15</t>
+  </si>
+  <si>
+    <t>Eff_Skill_BaoZha_36</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6616,7 +6616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6721,9 +6721,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1429">
@@ -8486,10 +8483,10 @@
   <dimension ref="C1:N548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G209" sqref="G209"/>
+      <selection pane="bottomRight" activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15017,7 +15014,7 @@
         <v>169</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H176" s="5">
         <v>1</v>
@@ -15049,7 +15046,7 @@
         <v>169</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H177" s="5">
         <v>2.5</v>
@@ -15081,7 +15078,7 @@
         <v>169</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H178" s="5">
         <v>0.5</v>
@@ -15113,7 +15110,7 @@
         <v>169</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H179" s="5">
         <v>1.8</v>
@@ -15145,10 +15142,10 @@
         <v>169</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
       <c r="H180" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
@@ -15177,7 +15174,7 @@
         <v>169</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H181" s="5">
         <v>2.5</v>
@@ -15209,7 +15206,7 @@
         <v>169</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H182" s="5">
         <v>2.5</v>
@@ -15241,7 +15238,7 @@
         <v>169</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H183" s="5">
         <v>3</v>
@@ -15305,7 +15302,7 @@
         <v>169</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H185" s="5">
         <v>0</v>
@@ -15333,11 +15330,11 @@
       <c r="E186" s="5">
         <v>1</v>
       </c>
-      <c r="F186" s="41">
+      <c r="F186" s="5">
         <v>0</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H186" s="5">
         <v>2</v>
@@ -15365,11 +15362,11 @@
       <c r="E187" s="5">
         <v>1</v>
       </c>
-      <c r="F187" s="41">
+      <c r="F187" s="5">
         <v>0</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H187" s="5">
         <v>2.5</v>
@@ -15397,11 +15394,11 @@
       <c r="E188" s="5">
         <v>1</v>
       </c>
-      <c r="F188" s="41">
+      <c r="F188" s="5">
         <v>0</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H188" s="5">
         <v>0.5</v>
@@ -15429,11 +15426,11 @@
       <c r="E189" s="5">
         <v>1</v>
       </c>
-      <c r="F189" s="41">
+      <c r="F189" s="5">
         <v>0</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H189" s="5">
         <v>2.5</v>
@@ -15461,7 +15458,7 @@
       <c r="E190" s="5">
         <v>1</v>
       </c>
-      <c r="F190" s="41">
+      <c r="F190" s="5">
         <v>0</v>
       </c>
       <c r="G190" s="5" t="s">
@@ -15493,7 +15490,7 @@
       <c r="E191" s="5">
         <v>1</v>
       </c>
-      <c r="F191" s="41">
+      <c r="F191" s="5">
         <v>0</v>
       </c>
       <c r="G191" s="5" t="s">
@@ -15525,7 +15522,7 @@
       <c r="E192" s="5">
         <v>1</v>
       </c>
-      <c r="F192" s="41">
+      <c r="F192" s="5">
         <v>0</v>
       </c>
       <c r="G192" s="5" t="s">
@@ -15557,11 +15554,11 @@
       <c r="E193" s="5">
         <v>1</v>
       </c>
-      <c r="F193" s="41">
+      <c r="F193" s="5">
         <v>0</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H193" s="5">
         <v>2.5</v>
@@ -15589,11 +15586,11 @@
       <c r="E194" s="5">
         <v>1</v>
       </c>
-      <c r="F194" s="41">
+      <c r="F194" s="5">
         <v>0</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H194" s="5">
         <v>2.5</v>
@@ -15657,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H196" s="5">
         <v>1</v>
@@ -15689,7 +15686,7 @@
         <v>169</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H197" s="5">
         <v>1</v>
@@ -15721,7 +15718,7 @@
         <v>169</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H198" s="5">
         <v>2</v>
@@ -15817,7 +15814,7 @@
         <v>169</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H201" s="5">
         <v>2</v>
@@ -15881,7 +15878,7 @@
         <v>169</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H203" s="5">
         <v>2</v>
@@ -15913,7 +15910,7 @@
         <v>169</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H204" s="5">
         <v>2</v>
@@ -15945,7 +15942,7 @@
         <v>169</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H205" s="5">
         <v>2</v>
@@ -15977,7 +15974,7 @@
         <v>169</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H206" s="5">
         <v>2</v>
@@ -16009,7 +16006,7 @@
         <v>169</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H207" s="5">
         <v>0.5</v>

--- a/Unity/Assets/Config/Excel/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EffectConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA722-D263-4044-A009-4424E5993338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1F296E-301C-45A5-AACE-5F2C6315DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="537">
   <si>
     <t>#</t>
   </si>
@@ -1986,6 +1986,10 @@
   </si>
   <si>
     <t>Eff_Skill_BaoZha_36</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_22</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -8483,10 +8487,10 @@
   <dimension ref="C1:N548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A188" sqref="A188:XFD188"/>
+      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15622,7 +15626,7 @@
         <v>169</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="H195" s="5">
         <v>2.5</v>
